--- a/files/CorreosSGI.xlsx
+++ b/files/CorreosSGI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soporte\Documents\Usuarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\usuarios\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26F9A920-D9BB-4E9E-B609-D79068169F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A0E70A-B654-4A57-B0EE-F6B55B5A3446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7683667-3E29-492D-AA2E-3B8588B65130}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7683667-3E29-492D-AA2E-3B8588B65130}"/>
   </bookViews>
   <sheets>
     <sheet name="users_6_11_2024 8_15_05 p  m" sheetId="2" r:id="rId1"/>
@@ -31,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3230,9 +3228,6 @@
     <t>magda.ariza@sgiltda.com</t>
   </si>
   <si>
-    <t>Manuel Pico</t>
-  </si>
-  <si>
     <t>desarrollo.software3@sgiltda.com</t>
   </si>
   <si>
@@ -4893,13 +4888,16 @@
   </si>
   <si>
     <t>zorayda.consuelo@sgiltda.com</t>
+  </si>
+  <si>
+    <t>Manuel Fernando Pico Duque</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4968,7 +4966,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C7380A8A-7E84-4E88-9D27-B9D75E5AF372}" name="users_6_11_2024_8_15_05_p__m" displayName="users_6_11_2024_8_15_05_p__m" ref="A1:B813" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B813" xr:uid="{C7380A8A-7E84-4E88-9D27-B9D75E5AF372}"/>
+  <autoFilter ref="A1:B813" xr:uid="{C7380A8A-7E84-4E88-9D27-B9D75E5AF372}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Brandon Javier Camacho Hortua"/>
+        <filter val="Brandon Moreno"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E6C2DBC1-6DB8-4089-9E5E-F64A697298CB}" uniqueName="1" name="Nombre para mostrar" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{C3159954-6829-4D7E-8710-B3F8454E647B}" uniqueName="2" name="Nombre principal de usuario" queryTableFieldId="2" dataDxfId="0"/>
@@ -5297,16 +5302,16 @@
   <dimension ref="A1:B813"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5314,7 +5319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" hidden="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5322,7 +5327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" hidden="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5330,7 +5335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" hidden="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -5338,7 +5343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" hidden="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -5346,7 +5351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" hidden="1">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -5354,7 +5359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" hidden="1">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -5362,7 +5367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" hidden="1">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -5370,7 +5375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" hidden="1">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -5378,7 +5383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" hidden="1">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -5386,7 +5391,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" hidden="1">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -5394,7 +5399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" hidden="1">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -5402,7 +5407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" hidden="1">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -5410,7 +5415,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" hidden="1">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -5418,7 +5423,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" hidden="1">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -5426,7 +5431,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" hidden="1">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -5434,7 +5439,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" hidden="1">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -5442,7 +5447,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" hidden="1">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -5450,7 +5455,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" hidden="1">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -5458,7 +5463,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" hidden="1">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -5466,7 +5471,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" hidden="1">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -5474,7 +5479,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" hidden="1">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -5482,7 +5487,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" hidden="1">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -5490,7 +5495,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" hidden="1">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -5498,7 +5503,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" hidden="1">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -5506,7 +5511,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" hidden="1">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -5514,7 +5519,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" hidden="1">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -5522,7 +5527,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" hidden="1">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -5530,7 +5535,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" hidden="1">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -5538,7 +5543,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" hidden="1">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -5546,7 +5551,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" hidden="1">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -5554,7 +5559,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" hidden="1">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -5562,7 +5567,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" hidden="1">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -5570,7 +5575,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" hidden="1">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,7 +5583,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" hidden="1">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -5586,7 +5591,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" hidden="1">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -5594,7 +5599,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" hidden="1">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -5602,7 +5607,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" hidden="1">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -5610,7 +5615,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" hidden="1">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -5618,7 +5623,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" hidden="1">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -5626,7 +5631,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" hidden="1">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -5634,7 +5639,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" hidden="1">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -5642,7 +5647,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" hidden="1">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -5650,7 +5655,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" hidden="1">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -5658,7 +5663,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" hidden="1">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -5666,7 +5671,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" hidden="1">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -5674,7 +5679,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" hidden="1">
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
@@ -5682,7 +5687,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" hidden="1">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
@@ -5690,7 +5695,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" hidden="1">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
@@ -5698,7 +5703,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" hidden="1">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
@@ -5706,7 +5711,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" hidden="1">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -5714,7 +5719,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" hidden="1">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -5722,7 +5727,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" hidden="1">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -5730,7 +5735,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" hidden="1">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -5738,7 +5743,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" hidden="1">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -5746,7 +5751,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" hidden="1">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -5754,7 +5759,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" hidden="1">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -5762,7 +5767,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" hidden="1">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -5770,7 +5775,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" hidden="1">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -5778,7 +5783,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" hidden="1">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -5786,7 +5791,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" hidden="1">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -5794,7 +5799,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" hidden="1">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -5802,7 +5807,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" hidden="1">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -5810,7 +5815,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" hidden="1">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
@@ -5818,7 +5823,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" hidden="1">
       <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
@@ -5826,7 +5831,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" hidden="1">
       <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
@@ -5834,7 +5839,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" hidden="1">
       <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
@@ -5842,7 +5847,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" hidden="1">
       <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
@@ -5850,7 +5855,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" hidden="1">
       <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
@@ -5858,7 +5863,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" hidden="1">
       <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
@@ -5866,7 +5871,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" hidden="1">
       <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
@@ -5874,7 +5879,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" hidden="1">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
@@ -5882,7 +5887,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" hidden="1">
       <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
@@ -5890,7 +5895,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" hidden="1">
       <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
@@ -5898,7 +5903,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" hidden="1">
       <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
@@ -5906,7 +5911,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" hidden="1">
       <c r="A76" s="1" t="s">
         <v>150</v>
       </c>
@@ -5914,7 +5919,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" hidden="1">
       <c r="A77" s="1" t="s">
         <v>152</v>
       </c>
@@ -5922,7 +5927,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" hidden="1">
       <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
@@ -5930,7 +5935,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" hidden="1">
       <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
@@ -5938,7 +5943,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" hidden="1">
       <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
@@ -5946,7 +5951,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" hidden="1">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -5954,7 +5959,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" hidden="1">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -5962,7 +5967,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" hidden="1">
       <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
@@ -5970,7 +5975,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" hidden="1">
       <c r="A84" s="1" t="s">
         <v>166</v>
       </c>
@@ -5978,7 +5983,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" hidden="1">
       <c r="A85" s="1" t="s">
         <v>168</v>
       </c>
@@ -5986,7 +5991,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" hidden="1">
       <c r="A86" s="1" t="s">
         <v>170</v>
       </c>
@@ -5994,7 +5999,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
         <v>172</v>
       </c>
@@ -6002,7 +6007,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
         <v>174</v>
       </c>
@@ -6010,7 +6015,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" hidden="1">
       <c r="A89" s="1" t="s">
         <v>176</v>
       </c>
@@ -6018,7 +6023,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" hidden="1">
       <c r="A90" s="1" t="s">
         <v>178</v>
       </c>
@@ -6026,7 +6031,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" hidden="1">
       <c r="A91" s="1" t="s">
         <v>180</v>
       </c>
@@ -6034,7 +6039,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" hidden="1">
       <c r="A92" s="1" t="s">
         <v>182</v>
       </c>
@@ -6042,7 +6047,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" hidden="1">
       <c r="A93" s="1" t="s">
         <v>184</v>
       </c>
@@ -6050,7 +6055,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" hidden="1">
       <c r="A94" s="1" t="s">
         <v>186</v>
       </c>
@@ -6058,7 +6063,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" hidden="1">
       <c r="A95" s="1" t="s">
         <v>188</v>
       </c>
@@ -6066,7 +6071,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" hidden="1">
       <c r="A96" s="1" t="s">
         <v>190</v>
       </c>
@@ -6074,7 +6079,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" hidden="1">
       <c r="A97" s="1" t="s">
         <v>192</v>
       </c>
@@ -6082,7 +6087,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" hidden="1">
       <c r="A98" s="1" t="s">
         <v>194</v>
       </c>
@@ -6090,7 +6095,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" hidden="1">
       <c r="A99" s="1" t="s">
         <v>196</v>
       </c>
@@ -6098,7 +6103,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" hidden="1">
       <c r="A100" s="1" t="s">
         <v>198</v>
       </c>
@@ -6106,7 +6111,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" hidden="1">
       <c r="A101" s="1" t="s">
         <v>200</v>
       </c>
@@ -6114,7 +6119,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" hidden="1">
       <c r="A102" s="1" t="s">
         <v>202</v>
       </c>
@@ -6122,7 +6127,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" hidden="1">
       <c r="A103" s="1" t="s">
         <v>204</v>
       </c>
@@ -6130,7 +6135,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" hidden="1">
       <c r="A104" s="1" t="s">
         <v>206</v>
       </c>
@@ -6138,7 +6143,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" hidden="1">
       <c r="A105" s="1" t="s">
         <v>208</v>
       </c>
@@ -6146,7 +6151,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" hidden="1">
       <c r="A106" s="1" t="s">
         <v>210</v>
       </c>
@@ -6154,7 +6159,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" hidden="1">
       <c r="A107" s="1" t="s">
         <v>212</v>
       </c>
@@ -6162,7 +6167,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" hidden="1">
       <c r="A108" s="1" t="s">
         <v>214</v>
       </c>
@@ -6170,7 +6175,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" hidden="1">
       <c r="A109" s="1" t="s">
         <v>216</v>
       </c>
@@ -6178,7 +6183,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" hidden="1">
       <c r="A110" s="1" t="s">
         <v>218</v>
       </c>
@@ -6186,7 +6191,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" hidden="1">
       <c r="A111" s="1" t="s">
         <v>220</v>
       </c>
@@ -6194,7 +6199,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" hidden="1">
       <c r="A112" s="1" t="s">
         <v>222</v>
       </c>
@@ -6202,7 +6207,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" hidden="1">
       <c r="A113" s="1" t="s">
         <v>224</v>
       </c>
@@ -6210,7 +6215,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" hidden="1">
       <c r="A114" s="1" t="s">
         <v>226</v>
       </c>
@@ -6218,7 +6223,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" hidden="1">
       <c r="A115" s="1" t="s">
         <v>228</v>
       </c>
@@ -6226,7 +6231,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" hidden="1">
       <c r="A116" s="1" t="s">
         <v>230</v>
       </c>
@@ -6234,7 +6239,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" hidden="1">
       <c r="A117" s="1" t="s">
         <v>232</v>
       </c>
@@ -6242,7 +6247,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" hidden="1">
       <c r="A118" s="1" t="s">
         <v>234</v>
       </c>
@@ -6250,7 +6255,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" hidden="1">
       <c r="A119" s="1" t="s">
         <v>236</v>
       </c>
@@ -6258,7 +6263,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" hidden="1">
       <c r="A120" s="1" t="s">
         <v>238</v>
       </c>
@@ -6266,7 +6271,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" hidden="1">
       <c r="A121" s="1" t="s">
         <v>240</v>
       </c>
@@ -6274,7 +6279,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" hidden="1">
       <c r="A122" s="1" t="s">
         <v>242</v>
       </c>
@@ -6282,7 +6287,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" hidden="1">
       <c r="A123" s="1" t="s">
         <v>244</v>
       </c>
@@ -6290,7 +6295,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" hidden="1">
       <c r="A124" s="1" t="s">
         <v>246</v>
       </c>
@@ -6298,7 +6303,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" hidden="1">
       <c r="A125" s="1" t="s">
         <v>248</v>
       </c>
@@ -6306,7 +6311,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" hidden="1">
       <c r="A126" s="1" t="s">
         <v>250</v>
       </c>
@@ -6314,7 +6319,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" hidden="1">
       <c r="A127" s="1" t="s">
         <v>252</v>
       </c>
@@ -6322,7 +6327,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" hidden="1">
       <c r="A128" s="1" t="s">
         <v>254</v>
       </c>
@@ -6330,7 +6335,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" hidden="1">
       <c r="A129" s="1" t="s">
         <v>256</v>
       </c>
@@ -6338,7 +6343,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" hidden="1">
       <c r="A130" s="1" t="s">
         <v>258</v>
       </c>
@@ -6346,7 +6351,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" hidden="1">
       <c r="A131" s="1" t="s">
         <v>260</v>
       </c>
@@ -6354,7 +6359,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" hidden="1">
       <c r="A132" s="1" t="s">
         <v>262</v>
       </c>
@@ -6362,7 +6367,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" hidden="1">
       <c r="A133" s="1" t="s">
         <v>264</v>
       </c>
@@ -6370,7 +6375,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" hidden="1">
       <c r="A134" s="1" t="s">
         <v>266</v>
       </c>
@@ -6378,7 +6383,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" hidden="1">
       <c r="A135" s="1" t="s">
         <v>268</v>
       </c>
@@ -6386,7 +6391,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" hidden="1">
       <c r="A136" s="1" t="s">
         <v>270</v>
       </c>
@@ -6394,7 +6399,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" hidden="1">
       <c r="A137" s="1" t="s">
         <v>272</v>
       </c>
@@ -6402,7 +6407,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" hidden="1">
       <c r="A138" s="1" t="s">
         <v>274</v>
       </c>
@@ -6410,7 +6415,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" hidden="1">
       <c r="A139" s="1" t="s">
         <v>276</v>
       </c>
@@ -6418,7 +6423,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" hidden="1">
       <c r="A140" s="1" t="s">
         <v>278</v>
       </c>
@@ -6426,7 +6431,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" hidden="1">
       <c r="A141" s="1" t="s">
         <v>280</v>
       </c>
@@ -6434,7 +6439,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" hidden="1">
       <c r="A142" s="1" t="s">
         <v>282</v>
       </c>
@@ -6442,7 +6447,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" hidden="1">
       <c r="A143" s="1" t="s">
         <v>284</v>
       </c>
@@ -6450,7 +6455,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" hidden="1">
       <c r="A144" s="1" t="s">
         <v>286</v>
       </c>
@@ -6458,7 +6463,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" hidden="1">
       <c r="A145" s="1" t="s">
         <v>288</v>
       </c>
@@ -6466,7 +6471,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" hidden="1">
       <c r="A146" s="1" t="s">
         <v>290</v>
       </c>
@@ -6474,7 +6479,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" hidden="1">
       <c r="A147" s="1" t="s">
         <v>292</v>
       </c>
@@ -6482,7 +6487,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" hidden="1">
       <c r="A148" s="1" t="s">
         <v>294</v>
       </c>
@@ -6490,7 +6495,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" hidden="1">
       <c r="A149" s="1" t="s">
         <v>296</v>
       </c>
@@ -6498,7 +6503,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" hidden="1">
       <c r="A150" s="1" t="s">
         <v>298</v>
       </c>
@@ -6506,7 +6511,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" hidden="1">
       <c r="A151" s="1" t="s">
         <v>300</v>
       </c>
@@ -6514,7 +6519,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" hidden="1">
       <c r="A152" s="1" t="s">
         <v>302</v>
       </c>
@@ -6522,7 +6527,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" hidden="1">
       <c r="A153" s="1" t="s">
         <v>304</v>
       </c>
@@ -6530,7 +6535,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" hidden="1">
       <c r="A154" s="1" t="s">
         <v>306</v>
       </c>
@@ -6538,7 +6543,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" hidden="1">
       <c r="A155" s="1" t="s">
         <v>308</v>
       </c>
@@ -6546,7 +6551,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" hidden="1">
       <c r="A156" s="1" t="s">
         <v>310</v>
       </c>
@@ -6554,7 +6559,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" hidden="1">
       <c r="A157" s="1" t="s">
         <v>312</v>
       </c>
@@ -6562,7 +6567,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" hidden="1">
       <c r="A158" s="1" t="s">
         <v>314</v>
       </c>
@@ -6570,7 +6575,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" hidden="1">
       <c r="A159" s="1" t="s">
         <v>316</v>
       </c>
@@ -6578,7 +6583,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" hidden="1">
       <c r="A160" s="1" t="s">
         <v>318</v>
       </c>
@@ -6586,7 +6591,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" hidden="1">
       <c r="A161" s="1" t="s">
         <v>320</v>
       </c>
@@ -6594,7 +6599,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" hidden="1">
       <c r="A162" s="1" t="s">
         <v>322</v>
       </c>
@@ -6602,7 +6607,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" hidden="1">
       <c r="A163" s="1" t="s">
         <v>324</v>
       </c>
@@ -6610,7 +6615,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" hidden="1">
       <c r="A164" s="1" t="s">
         <v>326</v>
       </c>
@@ -6618,7 +6623,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" hidden="1">
       <c r="A165" s="1" t="s">
         <v>328</v>
       </c>
@@ -6626,7 +6631,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" hidden="1">
       <c r="A166" s="1" t="s">
         <v>330</v>
       </c>
@@ -6634,7 +6639,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" hidden="1">
       <c r="A167" s="1" t="s">
         <v>332</v>
       </c>
@@ -6642,7 +6647,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" hidden="1">
       <c r="A168" s="1" t="s">
         <v>334</v>
       </c>
@@ -6650,7 +6655,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" hidden="1">
       <c r="A169" s="1" t="s">
         <v>336</v>
       </c>
@@ -6658,7 +6663,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" hidden="1">
       <c r="A170" s="1" t="s">
         <v>338</v>
       </c>
@@ -6666,7 +6671,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" hidden="1">
       <c r="A171" s="1" t="s">
         <v>340</v>
       </c>
@@ -6674,7 +6679,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" hidden="1">
       <c r="A172" s="1" t="s">
         <v>342</v>
       </c>
@@ -6682,7 +6687,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" hidden="1">
       <c r="A173" s="1" t="s">
         <v>344</v>
       </c>
@@ -6690,7 +6695,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" hidden="1">
       <c r="A174" s="1" t="s">
         <v>346</v>
       </c>
@@ -6698,7 +6703,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" hidden="1">
       <c r="A175" s="1" t="s">
         <v>348</v>
       </c>
@@ -6706,7 +6711,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" hidden="1">
       <c r="A176" s="1" t="s">
         <v>350</v>
       </c>
@@ -6714,7 +6719,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" hidden="1">
       <c r="A177" s="1" t="s">
         <v>352</v>
       </c>
@@ -6722,7 +6727,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" hidden="1">
       <c r="A178" s="1" t="s">
         <v>354</v>
       </c>
@@ -6730,7 +6735,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" hidden="1">
       <c r="A179" s="1" t="s">
         <v>356</v>
       </c>
@@ -6738,7 +6743,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" hidden="1">
       <c r="A180" s="1" t="s">
         <v>358</v>
       </c>
@@ -6746,7 +6751,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" hidden="1">
       <c r="A181" s="1" t="s">
         <v>360</v>
       </c>
@@ -6754,7 +6759,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" hidden="1">
       <c r="A182" s="1" t="s">
         <v>362</v>
       </c>
@@ -6762,7 +6767,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" hidden="1">
       <c r="A183" s="1" t="s">
         <v>364</v>
       </c>
@@ -6770,7 +6775,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" hidden="1">
       <c r="A184" s="1" t="s">
         <v>366</v>
       </c>
@@ -6778,7 +6783,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" hidden="1">
       <c r="A185" s="1" t="s">
         <v>368</v>
       </c>
@@ -6786,7 +6791,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" hidden="1">
       <c r="A186" s="1" t="s">
         <v>370</v>
       </c>
@@ -6794,7 +6799,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" hidden="1">
       <c r="A187" s="1" t="s">
         <v>372</v>
       </c>
@@ -6802,7 +6807,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" hidden="1">
       <c r="A188" s="1" t="s">
         <v>374</v>
       </c>
@@ -6810,7 +6815,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" hidden="1">
       <c r="A189" s="1" t="s">
         <v>376</v>
       </c>
@@ -6818,7 +6823,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" hidden="1">
       <c r="A190" s="1" t="s">
         <v>378</v>
       </c>
@@ -6826,7 +6831,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" hidden="1">
       <c r="A191" s="1" t="s">
         <v>380</v>
       </c>
@@ -6834,7 +6839,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" hidden="1">
       <c r="A192" s="1" t="s">
         <v>382</v>
       </c>
@@ -6842,7 +6847,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" hidden="1">
       <c r="A193" s="1" t="s">
         <v>384</v>
       </c>
@@ -6850,7 +6855,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" hidden="1">
       <c r="A194" s="1" t="s">
         <v>386</v>
       </c>
@@ -6858,7 +6863,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" hidden="1">
       <c r="A195" s="1" t="s">
         <v>388</v>
       </c>
@@ -6866,7 +6871,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" hidden="1">
       <c r="A196" s="1" t="s">
         <v>390</v>
       </c>
@@ -6874,7 +6879,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" hidden="1">
       <c r="A197" s="1" t="s">
         <v>392</v>
       </c>
@@ -6882,7 +6887,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" hidden="1">
       <c r="A198" s="1" t="s">
         <v>394</v>
       </c>
@@ -6890,7 +6895,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" hidden="1">
       <c r="A199" s="1" t="s">
         <v>396</v>
       </c>
@@ -6898,7 +6903,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" hidden="1">
       <c r="A200" s="1" t="s">
         <v>398</v>
       </c>
@@ -6906,7 +6911,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" hidden="1">
       <c r="A201" s="1" t="s">
         <v>400</v>
       </c>
@@ -6914,7 +6919,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" hidden="1">
       <c r="A202" s="1" t="s">
         <v>402</v>
       </c>
@@ -6922,7 +6927,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" hidden="1">
       <c r="A203" s="1" t="s">
         <v>404</v>
       </c>
@@ -6930,7 +6935,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" hidden="1">
       <c r="A204" s="1" t="s">
         <v>406</v>
       </c>
@@ -6938,7 +6943,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" hidden="1">
       <c r="A205" s="1" t="s">
         <v>408</v>
       </c>
@@ -6946,7 +6951,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" hidden="1">
       <c r="A206" s="1" t="s">
         <v>410</v>
       </c>
@@ -6954,7 +6959,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" hidden="1">
       <c r="A207" s="1" t="s">
         <v>412</v>
       </c>
@@ -6962,7 +6967,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" hidden="1">
       <c r="A208" s="1" t="s">
         <v>414</v>
       </c>
@@ -6970,7 +6975,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" hidden="1">
       <c r="A209" s="1" t="s">
         <v>416</v>
       </c>
@@ -6978,7 +6983,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" hidden="1">
       <c r="A210" s="1" t="s">
         <v>418</v>
       </c>
@@ -6986,7 +6991,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" hidden="1">
       <c r="A211" s="1" t="s">
         <v>420</v>
       </c>
@@ -6994,7 +6999,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" hidden="1">
       <c r="A212" s="1" t="s">
         <v>422</v>
       </c>
@@ -7002,7 +7007,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" hidden="1">
       <c r="A213" s="1" t="s">
         <v>424</v>
       </c>
@@ -7010,7 +7015,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" hidden="1">
       <c r="A214" s="1" t="s">
         <v>426</v>
       </c>
@@ -7018,7 +7023,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" hidden="1">
       <c r="A215" s="1" t="s">
         <v>428</v>
       </c>
@@ -7026,7 +7031,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" hidden="1">
       <c r="A216" s="1" t="s">
         <v>430</v>
       </c>
@@ -7034,7 +7039,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" hidden="1">
       <c r="A217" s="1" t="s">
         <v>432</v>
       </c>
@@ -7042,7 +7047,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" hidden="1">
       <c r="A218" s="1" t="s">
         <v>434</v>
       </c>
@@ -7050,7 +7055,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" hidden="1">
       <c r="A219" s="1" t="s">
         <v>436</v>
       </c>
@@ -7058,7 +7063,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" hidden="1">
       <c r="A220" s="1" t="s">
         <v>438</v>
       </c>
@@ -7066,7 +7071,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" hidden="1">
       <c r="A221" s="1" t="s">
         <v>440</v>
       </c>
@@ -7074,7 +7079,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" hidden="1">
       <c r="A222" s="1" t="s">
         <v>442</v>
       </c>
@@ -7082,7 +7087,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" hidden="1">
       <c r="A223" s="1" t="s">
         <v>444</v>
       </c>
@@ -7090,7 +7095,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" hidden="1">
       <c r="A224" s="1" t="s">
         <v>446</v>
       </c>
@@ -7098,7 +7103,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" hidden="1">
       <c r="A225" s="1" t="s">
         <v>448</v>
       </c>
@@ -7106,7 +7111,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" hidden="1">
       <c r="A226" s="1" t="s">
         <v>450</v>
       </c>
@@ -7114,7 +7119,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" hidden="1">
       <c r="A227" s="1" t="s">
         <v>452</v>
       </c>
@@ -7122,7 +7127,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" hidden="1">
       <c r="A228" s="1" t="s">
         <v>454</v>
       </c>
@@ -7130,7 +7135,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" hidden="1">
       <c r="A229" s="1" t="s">
         <v>456</v>
       </c>
@@ -7138,7 +7143,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" hidden="1">
       <c r="A230" s="1" t="s">
         <v>458</v>
       </c>
@@ -7146,7 +7151,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" hidden="1">
       <c r="A231" s="1" t="s">
         <v>460</v>
       </c>
@@ -7154,7 +7159,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" hidden="1">
       <c r="A232" s="1" t="s">
         <v>462</v>
       </c>
@@ -7162,7 +7167,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" hidden="1">
       <c r="A233" s="1" t="s">
         <v>464</v>
       </c>
@@ -7170,7 +7175,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" hidden="1">
       <c r="A234" s="1" t="s">
         <v>466</v>
       </c>
@@ -7178,7 +7183,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" hidden="1">
       <c r="A235" s="1" t="s">
         <v>468</v>
       </c>
@@ -7186,7 +7191,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" hidden="1">
       <c r="A236" s="1" t="s">
         <v>470</v>
       </c>
@@ -7194,7 +7199,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" hidden="1">
       <c r="A237" s="1" t="s">
         <v>472</v>
       </c>
@@ -7202,7 +7207,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" hidden="1">
       <c r="A238" s="1" t="s">
         <v>474</v>
       </c>
@@ -7210,7 +7215,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" hidden="1">
       <c r="A239" s="1" t="s">
         <v>476</v>
       </c>
@@ -7218,7 +7223,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" hidden="1">
       <c r="A240" s="1" t="s">
         <v>478</v>
       </c>
@@ -7226,7 +7231,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" hidden="1">
       <c r="A241" s="1" t="s">
         <v>480</v>
       </c>
@@ -7234,7 +7239,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" hidden="1">
       <c r="A242" s="1" t="s">
         <v>482</v>
       </c>
@@ -7242,7 +7247,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" hidden="1">
       <c r="A243" s="1" t="s">
         <v>484</v>
       </c>
@@ -7250,7 +7255,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" hidden="1">
       <c r="A244" s="1" t="s">
         <v>486</v>
       </c>
@@ -7258,7 +7263,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" hidden="1">
       <c r="A245" s="1" t="s">
         <v>488</v>
       </c>
@@ -7266,7 +7271,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" hidden="1">
       <c r="A246" s="1" t="s">
         <v>490</v>
       </c>
@@ -7274,7 +7279,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" hidden="1">
       <c r="A247" s="1" t="s">
         <v>492</v>
       </c>
@@ -7282,7 +7287,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" hidden="1">
       <c r="A248" s="1" t="s">
         <v>494</v>
       </c>
@@ -7290,7 +7295,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" hidden="1">
       <c r="A249" s="1" t="s">
         <v>496</v>
       </c>
@@ -7298,7 +7303,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" hidden="1">
       <c r="A250" s="1" t="s">
         <v>498</v>
       </c>
@@ -7306,7 +7311,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" hidden="1">
       <c r="A251" s="1" t="s">
         <v>500</v>
       </c>
@@ -7314,7 +7319,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" hidden="1">
       <c r="A252" s="1" t="s">
         <v>502</v>
       </c>
@@ -7322,7 +7327,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" hidden="1">
       <c r="A253" s="1" t="s">
         <v>504</v>
       </c>
@@ -7330,7 +7335,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" hidden="1">
       <c r="A254" s="1" t="s">
         <v>506</v>
       </c>
@@ -7338,7 +7343,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" hidden="1">
       <c r="A255" s="1" t="s">
         <v>508</v>
       </c>
@@ -7346,7 +7351,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" hidden="1">
       <c r="A256" s="1" t="s">
         <v>510</v>
       </c>
@@ -7354,7 +7359,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" hidden="1">
       <c r="A257" s="1" t="s">
         <v>512</v>
       </c>
@@ -7362,7 +7367,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" hidden="1">
       <c r="A258" s="1" t="s">
         <v>514</v>
       </c>
@@ -7370,7 +7375,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" hidden="1">
       <c r="A259" s="1" t="s">
         <v>516</v>
       </c>
@@ -7378,7 +7383,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" hidden="1">
       <c r="A260" s="1" t="s">
         <v>518</v>
       </c>
@@ -7386,7 +7391,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" hidden="1">
       <c r="A261" s="1" t="s">
         <v>518</v>
       </c>
@@ -7394,7 +7399,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" hidden="1">
       <c r="A262" s="1" t="s">
         <v>521</v>
       </c>
@@ -7402,7 +7407,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" hidden="1">
       <c r="A263" s="1" t="s">
         <v>523</v>
       </c>
@@ -7410,7 +7415,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" hidden="1">
       <c r="A264" s="1" t="s">
         <v>525</v>
       </c>
@@ -7418,7 +7423,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" hidden="1">
       <c r="A265" s="1" t="s">
         <v>527</v>
       </c>
@@ -7426,7 +7431,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" hidden="1">
       <c r="A266" s="1" t="s">
         <v>529</v>
       </c>
@@ -7434,7 +7439,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" hidden="1">
       <c r="A267" s="1" t="s">
         <v>531</v>
       </c>
@@ -7442,7 +7447,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" hidden="1">
       <c r="A268" s="1" t="s">
         <v>533</v>
       </c>
@@ -7450,7 +7455,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" hidden="1">
       <c r="A269" s="1" t="s">
         <v>535</v>
       </c>
@@ -7458,7 +7463,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" hidden="1">
       <c r="A270" s="1" t="s">
         <v>537</v>
       </c>
@@ -7466,7 +7471,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" hidden="1">
       <c r="A271" s="1" t="s">
         <v>539</v>
       </c>
@@ -7474,7 +7479,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" hidden="1">
       <c r="A272" s="1" t="s">
         <v>541</v>
       </c>
@@ -7482,7 +7487,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" hidden="1">
       <c r="A273" s="1" t="s">
         <v>543</v>
       </c>
@@ -7490,7 +7495,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" hidden="1">
       <c r="A274" s="1" t="s">
         <v>545</v>
       </c>
@@ -7498,7 +7503,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" hidden="1">
       <c r="A275" s="1" t="s">
         <v>547</v>
       </c>
@@ -7506,7 +7511,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" hidden="1">
       <c r="A276" s="1" t="s">
         <v>549</v>
       </c>
@@ -7514,7 +7519,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" hidden="1">
       <c r="A277" s="1" t="s">
         <v>551</v>
       </c>
@@ -7522,7 +7527,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" hidden="1">
       <c r="A278" s="1" t="s">
         <v>553</v>
       </c>
@@ -7530,7 +7535,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" hidden="1">
       <c r="A279" s="1" t="s">
         <v>555</v>
       </c>
@@ -7538,7 +7543,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" hidden="1">
       <c r="A280" s="1" t="s">
         <v>557</v>
       </c>
@@ -7546,7 +7551,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" hidden="1">
       <c r="A281" s="1" t="s">
         <v>559</v>
       </c>
@@ -7554,7 +7559,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" hidden="1">
       <c r="A282" s="1" t="s">
         <v>561</v>
       </c>
@@ -7562,7 +7567,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" hidden="1">
       <c r="A283" s="1" t="s">
         <v>563</v>
       </c>
@@ -7570,7 +7575,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" hidden="1">
       <c r="A284" s="1" t="s">
         <v>565</v>
       </c>
@@ -7578,7 +7583,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" hidden="1">
       <c r="A285" s="1" t="s">
         <v>567</v>
       </c>
@@ -7586,7 +7591,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" hidden="1">
       <c r="A286" s="1" t="s">
         <v>569</v>
       </c>
@@ -7594,7 +7599,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" hidden="1">
       <c r="A287" s="1" t="s">
         <v>571</v>
       </c>
@@ -7602,7 +7607,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" hidden="1">
       <c r="A288" s="1" t="s">
         <v>573</v>
       </c>
@@ -7610,7 +7615,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" hidden="1">
       <c r="A289" s="1" t="s">
         <v>575</v>
       </c>
@@ -7618,7 +7623,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" hidden="1">
       <c r="A290" s="1" t="s">
         <v>577</v>
       </c>
@@ -7626,7 +7631,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" hidden="1">
       <c r="A291" s="1" t="s">
         <v>579</v>
       </c>
@@ -7634,7 +7639,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" hidden="1">
       <c r="A292" s="1" t="s">
         <v>581</v>
       </c>
@@ -7642,7 +7647,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" hidden="1">
       <c r="A293" s="1" t="s">
         <v>583</v>
       </c>
@@ -7650,7 +7655,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" hidden="1">
       <c r="A294" s="1" t="s">
         <v>585</v>
       </c>
@@ -7658,7 +7663,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" hidden="1">
       <c r="A295" s="1" t="s">
         <v>587</v>
       </c>
@@ -7666,7 +7671,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" hidden="1">
       <c r="A296" s="1" t="s">
         <v>589</v>
       </c>
@@ -7674,7 +7679,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" hidden="1">
       <c r="A297" s="1" t="s">
         <v>591</v>
       </c>
@@ -7682,7 +7687,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" hidden="1">
       <c r="A298" s="1" t="s">
         <v>593</v>
       </c>
@@ -7690,7 +7695,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" hidden="1">
       <c r="A299" s="1" t="s">
         <v>595</v>
       </c>
@@ -7698,7 +7703,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" hidden="1">
       <c r="A300" s="1" t="s">
         <v>597</v>
       </c>
@@ -7706,7 +7711,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" hidden="1">
       <c r="A301" s="1" t="s">
         <v>599</v>
       </c>
@@ -7714,7 +7719,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" hidden="1">
       <c r="A302" s="1" t="s">
         <v>601</v>
       </c>
@@ -7722,7 +7727,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" hidden="1">
       <c r="A303" s="1" t="s">
         <v>603</v>
       </c>
@@ -7730,7 +7735,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" hidden="1">
       <c r="A304" s="1" t="s">
         <v>605</v>
       </c>
@@ -7738,7 +7743,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" hidden="1">
       <c r="A305" s="1" t="s">
         <v>607</v>
       </c>
@@ -7746,7 +7751,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" hidden="1">
       <c r="A306" s="1" t="s">
         <v>609</v>
       </c>
@@ -7754,7 +7759,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" hidden="1">
       <c r="A307" s="1" t="s">
         <v>611</v>
       </c>
@@ -7762,7 +7767,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" hidden="1">
       <c r="A308" s="1" t="s">
         <v>613</v>
       </c>
@@ -7770,7 +7775,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" hidden="1">
       <c r="A309" s="1" t="s">
         <v>615</v>
       </c>
@@ -7778,7 +7783,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" hidden="1">
       <c r="A310" s="1" t="s">
         <v>617</v>
       </c>
@@ -7786,7 +7791,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" hidden="1">
       <c r="A311" s="1" t="s">
         <v>619</v>
       </c>
@@ -7794,7 +7799,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" hidden="1">
       <c r="A312" s="1" t="s">
         <v>621</v>
       </c>
@@ -7802,7 +7807,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" hidden="1">
       <c r="A313" s="1" t="s">
         <v>623</v>
       </c>
@@ -7810,7 +7815,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" hidden="1">
       <c r="A314" s="1" t="s">
         <v>625</v>
       </c>
@@ -7818,7 +7823,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" hidden="1">
       <c r="A315" s="1" t="s">
         <v>627</v>
       </c>
@@ -7826,7 +7831,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" hidden="1">
       <c r="A316" s="1" t="s">
         <v>629</v>
       </c>
@@ -7834,7 +7839,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" hidden="1">
       <c r="A317" s="1" t="s">
         <v>631</v>
       </c>
@@ -7842,7 +7847,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" hidden="1">
       <c r="A318" s="1" t="s">
         <v>633</v>
       </c>
@@ -7850,7 +7855,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" hidden="1">
       <c r="A319" s="1" t="s">
         <v>635</v>
       </c>
@@ -7858,7 +7863,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" hidden="1">
       <c r="A320" s="1" t="s">
         <v>637</v>
       </c>
@@ -7866,7 +7871,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" hidden="1">
       <c r="A321" s="1" t="s">
         <v>639</v>
       </c>
@@ -7874,7 +7879,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" hidden="1">
       <c r="A322" s="1" t="s">
         <v>641</v>
       </c>
@@ -7882,7 +7887,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" hidden="1">
       <c r="A323" s="1" t="s">
         <v>643</v>
       </c>
@@ -7890,7 +7895,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" hidden="1">
       <c r="A324" s="1" t="s">
         <v>645</v>
       </c>
@@ -7898,7 +7903,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" hidden="1">
       <c r="A325" s="1" t="s">
         <v>647</v>
       </c>
@@ -7906,7 +7911,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" hidden="1">
       <c r="A326" s="1" t="s">
         <v>649</v>
       </c>
@@ -7914,7 +7919,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" hidden="1">
       <c r="A327" s="1" t="s">
         <v>651</v>
       </c>
@@ -7922,7 +7927,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" hidden="1">
       <c r="A328" s="1" t="s">
         <v>653</v>
       </c>
@@ -7930,7 +7935,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" hidden="1">
       <c r="A329" s="1" t="s">
         <v>655</v>
       </c>
@@ -7938,7 +7943,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" hidden="1">
       <c r="A330" s="1" t="s">
         <v>657</v>
       </c>
@@ -7946,7 +7951,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" hidden="1">
       <c r="A331" s="1" t="s">
         <v>659</v>
       </c>
@@ -7954,7 +7959,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" hidden="1">
       <c r="A332" s="1" t="s">
         <v>661</v>
       </c>
@@ -7962,7 +7967,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" hidden="1">
       <c r="A333" s="1" t="s">
         <v>663</v>
       </c>
@@ -7970,7 +7975,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" hidden="1">
       <c r="A334" s="1" t="s">
         <v>665</v>
       </c>
@@ -7978,7 +7983,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" hidden="1">
       <c r="A335" s="1" t="s">
         <v>667</v>
       </c>
@@ -7986,7 +7991,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" hidden="1">
       <c r="A336" s="1" t="s">
         <v>669</v>
       </c>
@@ -7994,7 +7999,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" hidden="1">
       <c r="A337" s="1" t="s">
         <v>671</v>
       </c>
@@ -8002,7 +8007,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" hidden="1">
       <c r="A338" s="1" t="s">
         <v>673</v>
       </c>
@@ -8010,7 +8015,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" hidden="1">
       <c r="A339" s="1" t="s">
         <v>675</v>
       </c>
@@ -8018,7 +8023,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" hidden="1">
       <c r="A340" s="1" t="s">
         <v>677</v>
       </c>
@@ -8026,7 +8031,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" hidden="1">
       <c r="A341" s="1" t="s">
         <v>679</v>
       </c>
@@ -8034,7 +8039,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" hidden="1">
       <c r="A342" s="1" t="s">
         <v>681</v>
       </c>
@@ -8042,7 +8047,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" hidden="1">
       <c r="A343" s="1" t="s">
         <v>683</v>
       </c>
@@ -8050,7 +8055,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" hidden="1">
       <c r="A344" s="1" t="s">
         <v>685</v>
       </c>
@@ -8058,7 +8063,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" hidden="1">
       <c r="A345" s="1" t="s">
         <v>687</v>
       </c>
@@ -8066,7 +8071,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" hidden="1">
       <c r="A346" s="1" t="s">
         <v>689</v>
       </c>
@@ -8074,7 +8079,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" hidden="1">
       <c r="A347" s="1" t="s">
         <v>691</v>
       </c>
@@ -8082,7 +8087,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" hidden="1">
       <c r="A348" s="1" t="s">
         <v>693</v>
       </c>
@@ -8090,7 +8095,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" hidden="1">
       <c r="A349" s="1" t="s">
         <v>695</v>
       </c>
@@ -8098,7 +8103,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" hidden="1">
       <c r="A350" s="1" t="s">
         <v>697</v>
       </c>
@@ -8106,7 +8111,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" hidden="1">
       <c r="A351" s="1" t="s">
         <v>699</v>
       </c>
@@ -8114,7 +8119,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" hidden="1">
       <c r="A352" s="1" t="s">
         <v>701</v>
       </c>
@@ -8122,7 +8127,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" hidden="1">
       <c r="A353" s="1" t="s">
         <v>703</v>
       </c>
@@ -8130,7 +8135,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" hidden="1">
       <c r="A354" s="1" t="s">
         <v>705</v>
       </c>
@@ -8138,7 +8143,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" hidden="1">
       <c r="A355" s="1" t="s">
         <v>707</v>
       </c>
@@ -8146,7 +8151,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" hidden="1">
       <c r="A356" s="1" t="s">
         <v>709</v>
       </c>
@@ -8154,7 +8159,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" hidden="1">
       <c r="A357" s="1" t="s">
         <v>711</v>
       </c>
@@ -8162,7 +8167,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" hidden="1">
       <c r="A358" s="1" t="s">
         <v>713</v>
       </c>
@@ -8170,7 +8175,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" hidden="1">
       <c r="A359" s="1" t="s">
         <v>715</v>
       </c>
@@ -8178,7 +8183,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" hidden="1">
       <c r="A360" s="1" t="s">
         <v>717</v>
       </c>
@@ -8186,7 +8191,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" hidden="1">
       <c r="A361" s="1" t="s">
         <v>719</v>
       </c>
@@ -8194,7 +8199,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" hidden="1">
       <c r="A362" s="1" t="s">
         <v>721</v>
       </c>
@@ -8202,7 +8207,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" hidden="1">
       <c r="A363" s="1" t="s">
         <v>723</v>
       </c>
@@ -8210,7 +8215,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" hidden="1">
       <c r="A364" s="1" t="s">
         <v>725</v>
       </c>
@@ -8218,7 +8223,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" hidden="1">
       <c r="A365" s="1" t="s">
         <v>727</v>
       </c>
@@ -8226,7 +8231,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" hidden="1">
       <c r="A366" s="1" t="s">
         <v>729</v>
       </c>
@@ -8234,7 +8239,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" hidden="1">
       <c r="A367" s="1" t="s">
         <v>731</v>
       </c>
@@ -8242,7 +8247,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" hidden="1">
       <c r="A368" s="1" t="s">
         <v>733</v>
       </c>
@@ -8250,7 +8255,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" hidden="1">
       <c r="A369" s="1" t="s">
         <v>735</v>
       </c>
@@ -8258,7 +8263,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" hidden="1">
       <c r="A370" s="1" t="s">
         <v>737</v>
       </c>
@@ -8266,7 +8271,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" hidden="1">
       <c r="A371" s="1" t="s">
         <v>739</v>
       </c>
@@ -8274,7 +8279,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" hidden="1">
       <c r="A372" s="1" t="s">
         <v>741</v>
       </c>
@@ -8282,7 +8287,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" hidden="1">
       <c r="A373" s="1" t="s">
         <v>743</v>
       </c>
@@ -8290,7 +8295,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" hidden="1">
       <c r="A374" s="1" t="s">
         <v>745</v>
       </c>
@@ -8298,7 +8303,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" hidden="1">
       <c r="A375" s="1" t="s">
         <v>747</v>
       </c>
@@ -8306,7 +8311,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" hidden="1">
       <c r="A376" s="1" t="s">
         <v>749</v>
       </c>
@@ -8314,7 +8319,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" hidden="1">
       <c r="A377" s="1" t="s">
         <v>751</v>
       </c>
@@ -8322,7 +8327,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" hidden="1">
       <c r="A378" s="1" t="s">
         <v>753</v>
       </c>
@@ -8330,7 +8335,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" hidden="1">
       <c r="A379" s="1" t="s">
         <v>755</v>
       </c>
@@ -8338,7 +8343,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" hidden="1">
       <c r="A380" s="1" t="s">
         <v>757</v>
       </c>
@@ -8346,7 +8351,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" hidden="1">
       <c r="A381" s="1" t="s">
         <v>759</v>
       </c>
@@ -8354,7 +8359,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" hidden="1">
       <c r="A382" s="1" t="s">
         <v>761</v>
       </c>
@@ -8362,7 +8367,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" hidden="1">
       <c r="A383" s="1" t="s">
         <v>763</v>
       </c>
@@ -8370,7 +8375,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" hidden="1">
       <c r="A384" s="1" t="s">
         <v>765</v>
       </c>
@@ -8378,7 +8383,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" hidden="1">
       <c r="A385" s="1" t="s">
         <v>767</v>
       </c>
@@ -8386,7 +8391,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" hidden="1">
       <c r="A386" s="1" t="s">
         <v>769</v>
       </c>
@@ -8394,7 +8399,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" hidden="1">
       <c r="A387" s="1" t="s">
         <v>771</v>
       </c>
@@ -8402,7 +8407,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" hidden="1">
       <c r="A388" s="1" t="s">
         <v>773</v>
       </c>
@@ -8410,7 +8415,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" hidden="1">
       <c r="A389" s="1" t="s">
         <v>775</v>
       </c>
@@ -8418,7 +8423,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" hidden="1">
       <c r="A390" s="1" t="s">
         <v>777</v>
       </c>
@@ -8426,7 +8431,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" hidden="1">
       <c r="A391" s="1" t="s">
         <v>779</v>
       </c>
@@ -8434,7 +8439,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" hidden="1">
       <c r="A392" s="1" t="s">
         <v>781</v>
       </c>
@@ -8442,7 +8447,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" hidden="1">
       <c r="A393" s="1" t="s">
         <v>783</v>
       </c>
@@ -8450,7 +8455,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" hidden="1">
       <c r="A394" s="1" t="s">
         <v>785</v>
       </c>
@@ -8458,7 +8463,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" hidden="1">
       <c r="A395" s="1" t="s">
         <v>787</v>
       </c>
@@ -8466,7 +8471,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" hidden="1">
       <c r="A396" s="1" t="s">
         <v>789</v>
       </c>
@@ -8474,7 +8479,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" hidden="1">
       <c r="A397" s="1" t="s">
         <v>791</v>
       </c>
@@ -8482,7 +8487,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" hidden="1">
       <c r="A398" s="1" t="s">
         <v>793</v>
       </c>
@@ -8490,7 +8495,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" hidden="1">
       <c r="A399" s="1" t="s">
         <v>795</v>
       </c>
@@ -8498,7 +8503,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" hidden="1">
       <c r="A400" s="1" t="s">
         <v>797</v>
       </c>
@@ -8506,7 +8511,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" hidden="1">
       <c r="A401" s="1" t="s">
         <v>799</v>
       </c>
@@ -8514,7 +8519,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" hidden="1">
       <c r="A402" s="1" t="s">
         <v>801</v>
       </c>
@@ -8522,7 +8527,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" hidden="1">
       <c r="A403" s="1" t="s">
         <v>803</v>
       </c>
@@ -8530,7 +8535,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" hidden="1">
       <c r="A404" s="1" t="s">
         <v>805</v>
       </c>
@@ -8538,7 +8543,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" hidden="1">
       <c r="A405" s="1" t="s">
         <v>807</v>
       </c>
@@ -8546,7 +8551,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" hidden="1">
       <c r="A406" s="1" t="s">
         <v>809</v>
       </c>
@@ -8554,7 +8559,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" hidden="1">
       <c r="A407" s="1" t="s">
         <v>811</v>
       </c>
@@ -8562,7 +8567,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" hidden="1">
       <c r="A408" s="1" t="s">
         <v>813</v>
       </c>
@@ -8570,7 +8575,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" hidden="1">
       <c r="A409" s="1" t="s">
         <v>815</v>
       </c>
@@ -8578,7 +8583,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" hidden="1">
       <c r="A410" s="1" t="s">
         <v>817</v>
       </c>
@@ -8586,7 +8591,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" hidden="1">
       <c r="A411" s="1" t="s">
         <v>819</v>
       </c>
@@ -8594,7 +8599,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" hidden="1">
       <c r="A412" s="1" t="s">
         <v>821</v>
       </c>
@@ -8602,7 +8607,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" hidden="1">
       <c r="A413" s="1" t="s">
         <v>823</v>
       </c>
@@ -8610,7 +8615,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" hidden="1">
       <c r="A414" s="1" t="s">
         <v>825</v>
       </c>
@@ -8618,7 +8623,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" hidden="1">
       <c r="A415" s="1" t="s">
         <v>827</v>
       </c>
@@ -8626,7 +8631,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" hidden="1">
       <c r="A416" s="1" t="s">
         <v>829</v>
       </c>
@@ -8634,7 +8639,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" hidden="1">
       <c r="A417" s="1" t="s">
         <v>831</v>
       </c>
@@ -8642,7 +8647,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" hidden="1">
       <c r="A418" s="1" t="s">
         <v>833</v>
       </c>
@@ -8650,7 +8655,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" hidden="1">
       <c r="A419" s="1" t="s">
         <v>835</v>
       </c>
@@ -8658,7 +8663,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" hidden="1">
       <c r="A420" s="1" t="s">
         <v>837</v>
       </c>
@@ -8666,7 +8671,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" hidden="1">
       <c r="A421" s="1" t="s">
         <v>839</v>
       </c>
@@ -8674,7 +8679,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" hidden="1">
       <c r="A422" s="1" t="s">
         <v>841</v>
       </c>
@@ -8682,7 +8687,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" hidden="1">
       <c r="A423" s="1" t="s">
         <v>843</v>
       </c>
@@ -8690,7 +8695,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" hidden="1">
       <c r="A424" s="1" t="s">
         <v>845</v>
       </c>
@@ -8698,7 +8703,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" hidden="1">
       <c r="A425" s="1" t="s">
         <v>847</v>
       </c>
@@ -8706,7 +8711,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" hidden="1">
       <c r="A426" s="1" t="s">
         <v>849</v>
       </c>
@@ -8714,7 +8719,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" hidden="1">
       <c r="A427" s="1" t="s">
         <v>851</v>
       </c>
@@ -8722,7 +8727,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" hidden="1">
       <c r="A428" s="1" t="s">
         <v>853</v>
       </c>
@@ -8730,7 +8735,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" hidden="1">
       <c r="A429" s="1" t="s">
         <v>855</v>
       </c>
@@ -8738,7 +8743,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" hidden="1">
       <c r="A430" s="1" t="s">
         <v>857</v>
       </c>
@@ -8746,7 +8751,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" hidden="1">
       <c r="A431" s="1" t="s">
         <v>859</v>
       </c>
@@ -8754,7 +8759,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" hidden="1">
       <c r="A432" s="1" t="s">
         <v>861</v>
       </c>
@@ -8762,7 +8767,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" hidden="1">
       <c r="A433" s="1" t="s">
         <v>863</v>
       </c>
@@ -8770,7 +8775,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" hidden="1">
       <c r="A434" s="1" t="s">
         <v>865</v>
       </c>
@@ -8778,7 +8783,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" hidden="1">
       <c r="A435" s="1" t="s">
         <v>867</v>
       </c>
@@ -8786,7 +8791,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" hidden="1">
       <c r="A436" s="1" t="s">
         <v>869</v>
       </c>
@@ -8794,7 +8799,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" hidden="1">
       <c r="A437" s="1" t="s">
         <v>871</v>
       </c>
@@ -8802,7 +8807,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" hidden="1">
       <c r="A438" s="1" t="s">
         <v>873</v>
       </c>
@@ -8810,7 +8815,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" hidden="1">
       <c r="A439" s="1" t="s">
         <v>875</v>
       </c>
@@ -8818,7 +8823,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" hidden="1">
       <c r="A440" s="1" t="s">
         <v>877</v>
       </c>
@@ -8826,7 +8831,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" hidden="1">
       <c r="A441" s="1" t="s">
         <v>879</v>
       </c>
@@ -8834,7 +8839,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" hidden="1">
       <c r="A442" s="1" t="s">
         <v>881</v>
       </c>
@@ -8842,7 +8847,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" hidden="1">
       <c r="A443" s="1" t="s">
         <v>883</v>
       </c>
@@ -8850,7 +8855,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" hidden="1">
       <c r="A444" s="1" t="s">
         <v>885</v>
       </c>
@@ -8858,7 +8863,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" hidden="1">
       <c r="A445" s="1" t="s">
         <v>887</v>
       </c>
@@ -8866,7 +8871,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" hidden="1">
       <c r="A446" s="1" t="s">
         <v>889</v>
       </c>
@@ -8874,7 +8879,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" hidden="1">
       <c r="A447" s="1" t="s">
         <v>891</v>
       </c>
@@ -8882,7 +8887,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" hidden="1">
       <c r="A448" s="1" t="s">
         <v>893</v>
       </c>
@@ -8890,7 +8895,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" hidden="1">
       <c r="A449" s="1" t="s">
         <v>895</v>
       </c>
@@ -8898,7 +8903,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" hidden="1">
       <c r="A450" s="1" t="s">
         <v>897</v>
       </c>
@@ -8906,7 +8911,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" hidden="1">
       <c r="A451" s="1" t="s">
         <v>899</v>
       </c>
@@ -8914,7 +8919,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" hidden="1">
       <c r="A452" s="1" t="s">
         <v>901</v>
       </c>
@@ -8922,7 +8927,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" hidden="1">
       <c r="A453" s="1" t="s">
         <v>903</v>
       </c>
@@ -8930,7 +8935,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" hidden="1">
       <c r="A454" s="1" t="s">
         <v>905</v>
       </c>
@@ -8938,7 +8943,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" hidden="1">
       <c r="A455" s="1" t="s">
         <v>907</v>
       </c>
@@ -8946,7 +8951,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" hidden="1">
       <c r="A456" s="1" t="s">
         <v>909</v>
       </c>
@@ -8954,7 +8959,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" hidden="1">
       <c r="A457" s="1" t="s">
         <v>911</v>
       </c>
@@ -8962,7 +8967,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" hidden="1">
       <c r="A458" s="1" t="s">
         <v>913</v>
       </c>
@@ -8970,7 +8975,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" hidden="1">
       <c r="A459" s="1" t="s">
         <v>915</v>
       </c>
@@ -8978,7 +8983,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" hidden="1">
       <c r="A460" s="1" t="s">
         <v>917</v>
       </c>
@@ -8986,7 +8991,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" hidden="1">
       <c r="A461" s="1" t="s">
         <v>919</v>
       </c>
@@ -8994,7 +8999,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" hidden="1">
       <c r="A462" s="1" t="s">
         <v>921</v>
       </c>
@@ -9002,7 +9007,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" hidden="1">
       <c r="A463" s="1" t="s">
         <v>923</v>
       </c>
@@ -9010,7 +9015,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" hidden="1">
       <c r="A464" s="1" t="s">
         <v>925</v>
       </c>
@@ -9018,7 +9023,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" hidden="1">
       <c r="A465" s="1" t="s">
         <v>927</v>
       </c>
@@ -9026,7 +9031,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" hidden="1">
       <c r="A466" s="1" t="s">
         <v>929</v>
       </c>
@@ -9034,7 +9039,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" hidden="1">
       <c r="A467" s="1" t="s">
         <v>931</v>
       </c>
@@ -9042,7 +9047,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" hidden="1">
       <c r="A468" s="1" t="s">
         <v>931</v>
       </c>
@@ -9050,7 +9055,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" hidden="1">
       <c r="A469" s="1" t="s">
         <v>934</v>
       </c>
@@ -9058,7 +9063,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" hidden="1">
       <c r="A470" s="1" t="s">
         <v>936</v>
       </c>
@@ -9066,7 +9071,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" hidden="1">
       <c r="A471" s="1" t="s">
         <v>938</v>
       </c>
@@ -9074,7 +9079,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" hidden="1">
       <c r="A472" s="1" t="s">
         <v>940</v>
       </c>
@@ -9082,7 +9087,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" hidden="1">
       <c r="A473" s="1" t="s">
         <v>942</v>
       </c>
@@ -9090,7 +9095,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" hidden="1">
       <c r="A474" s="1" t="s">
         <v>944</v>
       </c>
@@ -9098,7 +9103,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" hidden="1">
       <c r="A475" s="1" t="s">
         <v>946</v>
       </c>
@@ -9106,7 +9111,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" hidden="1">
       <c r="A476" s="1" t="s">
         <v>948</v>
       </c>
@@ -9114,7 +9119,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" hidden="1">
       <c r="A477" s="1" t="s">
         <v>950</v>
       </c>
@@ -9122,7 +9127,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" hidden="1">
       <c r="A478" s="1" t="s">
         <v>952</v>
       </c>
@@ -9130,7 +9135,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" hidden="1">
       <c r="A479" s="1" t="s">
         <v>954</v>
       </c>
@@ -9138,7 +9143,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" hidden="1">
       <c r="A480" s="1" t="s">
         <v>956</v>
       </c>
@@ -9146,7 +9151,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" hidden="1">
       <c r="A481" s="1" t="s">
         <v>958</v>
       </c>
@@ -9154,7 +9159,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" hidden="1">
       <c r="A482" s="1" t="s">
         <v>960</v>
       </c>
@@ -9162,7 +9167,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" hidden="1">
       <c r="A483" s="1" t="s">
         <v>962</v>
       </c>
@@ -9170,7 +9175,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" hidden="1">
       <c r="A484" s="1" t="s">
         <v>964</v>
       </c>
@@ -9178,7 +9183,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" hidden="1">
       <c r="A485" s="1" t="s">
         <v>966</v>
       </c>
@@ -9186,7 +9191,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" hidden="1">
       <c r="A486" s="1" t="s">
         <v>968</v>
       </c>
@@ -9194,7 +9199,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" hidden="1">
       <c r="A487" s="1" t="s">
         <v>970</v>
       </c>
@@ -9202,7 +9207,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" hidden="1">
       <c r="A488" s="1" t="s">
         <v>972</v>
       </c>
@@ -9210,7 +9215,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" hidden="1">
       <c r="A489" s="1" t="s">
         <v>974</v>
       </c>
@@ -9218,7 +9223,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" hidden="1">
       <c r="A490" s="1" t="s">
         <v>976</v>
       </c>
@@ -9226,7 +9231,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" hidden="1">
       <c r="A491" s="1" t="s">
         <v>978</v>
       </c>
@@ -9234,7 +9239,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" hidden="1">
       <c r="A492" s="1" t="s">
         <v>980</v>
       </c>
@@ -9242,7 +9247,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" hidden="1">
       <c r="A493" s="1" t="s">
         <v>982</v>
       </c>
@@ -9250,7 +9255,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" hidden="1">
       <c r="A494" s="1" t="s">
         <v>984</v>
       </c>
@@ -9258,7 +9263,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" hidden="1">
       <c r="A495" s="1" t="s">
         <v>986</v>
       </c>
@@ -9266,7 +9271,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" hidden="1">
       <c r="A496" s="1" t="s">
         <v>988</v>
       </c>
@@ -9274,7 +9279,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" hidden="1">
       <c r="A497" s="1" t="s">
         <v>990</v>
       </c>
@@ -9282,7 +9287,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" hidden="1">
       <c r="A498" s="1" t="s">
         <v>992</v>
       </c>
@@ -9290,7 +9295,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" hidden="1">
       <c r="A499" s="1" t="s">
         <v>994</v>
       </c>
@@ -9298,7 +9303,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" hidden="1">
       <c r="A500" s="1" t="s">
         <v>996</v>
       </c>
@@ -9306,7 +9311,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" hidden="1">
       <c r="A501" s="1" t="s">
         <v>998</v>
       </c>
@@ -9314,7 +9319,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" hidden="1">
       <c r="A502" s="1" t="s">
         <v>1000</v>
       </c>
@@ -9322,7 +9327,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" hidden="1">
       <c r="A503" s="1" t="s">
         <v>1002</v>
       </c>
@@ -9330,7 +9335,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" hidden="1">
       <c r="A504" s="1" t="s">
         <v>1004</v>
       </c>
@@ -9338,7 +9343,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" hidden="1">
       <c r="A505" s="1" t="s">
         <v>1006</v>
       </c>
@@ -9346,7 +9351,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" hidden="1">
       <c r="A506" s="1" t="s">
         <v>1008</v>
       </c>
@@ -9354,7 +9359,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" hidden="1">
       <c r="A507" s="1" t="s">
         <v>1010</v>
       </c>
@@ -9362,7 +9367,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" hidden="1">
       <c r="A508" s="1" t="s">
         <v>1012</v>
       </c>
@@ -9370,7 +9375,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" hidden="1">
       <c r="A509" s="1" t="s">
         <v>1014</v>
       </c>
@@ -9378,7 +9383,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" hidden="1">
       <c r="A510" s="1" t="s">
         <v>1016</v>
       </c>
@@ -9386,7 +9391,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" hidden="1">
       <c r="A511" s="1" t="s">
         <v>1018</v>
       </c>
@@ -9394,7 +9399,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" hidden="1">
       <c r="A512" s="1" t="s">
         <v>1020</v>
       </c>
@@ -9402,7 +9407,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" hidden="1">
       <c r="A513" s="1" t="s">
         <v>1022</v>
       </c>
@@ -9410,7 +9415,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" hidden="1">
       <c r="A514" s="1" t="s">
         <v>1024</v>
       </c>
@@ -9418,7 +9423,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" hidden="1">
       <c r="A515" s="1" t="s">
         <v>1026</v>
       </c>
@@ -9426,7 +9431,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" hidden="1">
       <c r="A516" s="1" t="s">
         <v>1028</v>
       </c>
@@ -9434,7 +9439,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" hidden="1">
       <c r="A517" s="1" t="s">
         <v>1030</v>
       </c>
@@ -9442,7 +9447,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" hidden="1">
       <c r="A518" s="1" t="s">
         <v>1032</v>
       </c>
@@ -9450,7 +9455,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" hidden="1">
       <c r="A519" s="1" t="s">
         <v>1034</v>
       </c>
@@ -9458,7 +9463,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" hidden="1">
       <c r="A520" s="1" t="s">
         <v>1036</v>
       </c>
@@ -9466,7 +9471,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" hidden="1">
       <c r="A521" s="1" t="s">
         <v>1038</v>
       </c>
@@ -9474,7 +9479,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" hidden="1">
       <c r="A522" s="1" t="s">
         <v>1040</v>
       </c>
@@ -9482,7 +9487,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" hidden="1">
       <c r="A523" s="1" t="s">
         <v>1042</v>
       </c>
@@ -9490,7 +9495,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" hidden="1">
       <c r="A524" s="1" t="s">
         <v>1044</v>
       </c>
@@ -9498,7 +9503,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" hidden="1">
       <c r="A525" s="1" t="s">
         <v>1046</v>
       </c>
@@ -9506,7 +9511,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" hidden="1">
       <c r="A526" s="1" t="s">
         <v>1048</v>
       </c>
@@ -9514,7 +9519,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" hidden="1">
       <c r="A527" s="1" t="s">
         <v>1050</v>
       </c>
@@ -9522,7 +9527,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" hidden="1">
       <c r="A528" s="1" t="s">
         <v>1052</v>
       </c>
@@ -9530,7 +9535,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" hidden="1">
       <c r="A529" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9538,7 +9543,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" hidden="1">
       <c r="A530" s="1" t="s">
         <v>1056</v>
       </c>
@@ -9546,7 +9551,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" hidden="1">
       <c r="A531" s="1" t="s">
         <v>1058</v>
       </c>
@@ -9554,2266 +9559,2267 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" hidden="1">
       <c r="A532" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B532" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="B532" s="1" t="s">
+    </row>
+    <row r="533" spans="1:2" hidden="1">
+      <c r="A533" s="1" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A533" s="1" t="s">
+      <c r="B533" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="B533" s="1" t="s">
+    </row>
+    <row r="534" spans="1:2" hidden="1">
+      <c r="A534" s="1" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A534" s="1" t="s">
+      <c r="B534" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="B534" s="1" t="s">
+    </row>
+    <row r="535" spans="1:2" hidden="1">
+      <c r="A535" s="1" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A535" s="1" t="s">
+      <c r="B535" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="B535" s="1" t="s">
+    </row>
+    <row r="536" spans="1:2" hidden="1">
+      <c r="A536" s="1" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A536" s="1" t="s">
+      <c r="B536" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="B536" s="1" t="s">
+    </row>
+    <row r="537" spans="1:2" hidden="1">
+      <c r="A537" s="1" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A537" s="1" t="s">
+      <c r="B537" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="B537" s="1" t="s">
+    </row>
+    <row r="538" spans="1:2" hidden="1">
+      <c r="A538" s="1" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A538" s="1" t="s">
+      <c r="B538" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="B538" s="1" t="s">
+    </row>
+    <row r="539" spans="1:2" hidden="1">
+      <c r="A539" s="1" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A539" s="1" t="s">
+      <c r="B539" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="B539" s="1" t="s">
+    </row>
+    <row r="540" spans="1:2" hidden="1">
+      <c r="A540" s="1" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A540" s="1" t="s">
+      <c r="B540" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="B540" s="1" t="s">
+    </row>
+    <row r="541" spans="1:2" hidden="1">
+      <c r="A541" s="1" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A541" s="1" t="s">
+      <c r="B541" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="B541" s="1" t="s">
+    </row>
+    <row r="542" spans="1:2" hidden="1">
+      <c r="A542" s="1" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A542" s="1" t="s">
+      <c r="B542" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="B542" s="1" t="s">
+    </row>
+    <row r="543" spans="1:2" hidden="1">
+      <c r="A543" s="1" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A543" s="1" t="s">
+      <c r="B543" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="B543" s="1" t="s">
+    </row>
+    <row r="544" spans="1:2" hidden="1">
+      <c r="A544" s="1" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A544" s="1" t="s">
+      <c r="B544" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="B544" s="1" t="s">
+    </row>
+    <row r="545" spans="1:2" hidden="1">
+      <c r="A545" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B545" s="1" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A545" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B545" s="1" t="s">
+    <row r="546" spans="1:2" hidden="1">
+      <c r="A546" s="1" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A546" s="1" t="s">
+      <c r="B546" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="B546" s="1" t="s">
+    </row>
+    <row r="547" spans="1:2" hidden="1">
+      <c r="A547" s="1" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A547" s="1" t="s">
+      <c r="B547" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="B547" s="1" t="s">
+    </row>
+    <row r="548" spans="1:2" hidden="1">
+      <c r="A548" s="1" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A548" s="1" t="s">
+      <c r="B548" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="B548" s="1" t="s">
+    </row>
+    <row r="549" spans="1:2" hidden="1">
+      <c r="A549" s="1" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A549" s="1" t="s">
+      <c r="B549" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="B549" s="1" t="s">
+    </row>
+    <row r="550" spans="1:2" hidden="1">
+      <c r="A550" s="1" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A550" s="1" t="s">
+      <c r="B550" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="B550" s="1" t="s">
+    </row>
+    <row r="551" spans="1:2" hidden="1">
+      <c r="A551" s="1" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A551" s="1" t="s">
+      <c r="B551" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="B551" s="1" t="s">
+    </row>
+    <row r="552" spans="1:2" hidden="1">
+      <c r="A552" s="1" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A552" s="1" t="s">
+      <c r="B552" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="B552" s="1" t="s">
+    </row>
+    <row r="553" spans="1:2" hidden="1">
+      <c r="A553" s="1" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A553" s="1" t="s">
+      <c r="B553" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="B553" s="1" t="s">
+    </row>
+    <row r="554" spans="1:2" hidden="1">
+      <c r="A554" s="1" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A554" s="1" t="s">
+      <c r="B554" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="B554" s="1" t="s">
+    </row>
+    <row r="555" spans="1:2" hidden="1">
+      <c r="A555" s="1" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A555" s="1" t="s">
+      <c r="B555" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="B555" s="1" t="s">
+    </row>
+    <row r="556" spans="1:2" hidden="1">
+      <c r="A556" s="1" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A556" s="1" t="s">
+      <c r="B556" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="B556" s="1" t="s">
+    </row>
+    <row r="557" spans="1:2" hidden="1">
+      <c r="A557" s="1" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A557" s="1" t="s">
+      <c r="B557" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="B557" s="1" t="s">
+    </row>
+    <row r="558" spans="1:2" hidden="1">
+      <c r="A558" s="1" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A558" s="1" t="s">
+      <c r="B558" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="B558" s="1" t="s">
+    </row>
+    <row r="559" spans="1:2" hidden="1">
+      <c r="A559" s="1" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A559" s="1" t="s">
+      <c r="B559" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="B559" s="1" t="s">
+    </row>
+    <row r="560" spans="1:2" hidden="1">
+      <c r="A560" s="1" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A560" s="1" t="s">
+      <c r="B560" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="B560" s="1" t="s">
+    </row>
+    <row r="561" spans="1:2" hidden="1">
+      <c r="A561" s="1" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A561" s="1" t="s">
+      <c r="B561" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="B561" s="1" t="s">
+    </row>
+    <row r="562" spans="1:2" hidden="1">
+      <c r="A562" s="1" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A562" s="1" t="s">
+      <c r="B562" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="B562" s="1" t="s">
+    </row>
+    <row r="563" spans="1:2" hidden="1">
+      <c r="A563" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B563" s="1" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A563" s="1" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B563" s="1" t="s">
+    <row r="564" spans="1:2" hidden="1">
+      <c r="A564" s="1" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A564" s="1" t="s">
+      <c r="B564" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="B564" s="1" t="s">
+    </row>
+    <row r="565" spans="1:2" hidden="1">
+      <c r="A565" s="1" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A565" s="1" t="s">
+      <c r="B565" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="B565" s="1" t="s">
+    </row>
+    <row r="566" spans="1:2" hidden="1">
+      <c r="A566" s="1" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A566" s="1" t="s">
+      <c r="B566" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="B566" s="1" t="s">
+    </row>
+    <row r="567" spans="1:2" hidden="1">
+      <c r="A567" s="1" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A567" s="1" t="s">
+      <c r="B567" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="B567" s="1" t="s">
+    </row>
+    <row r="568" spans="1:2" hidden="1">
+      <c r="A568" s="1" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A568" s="1" t="s">
+      <c r="B568" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="B568" s="1" t="s">
+    </row>
+    <row r="569" spans="1:2" hidden="1">
+      <c r="A569" s="1" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A569" s="1" t="s">
+      <c r="B569" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="B569" s="1" t="s">
+    </row>
+    <row r="570" spans="1:2" hidden="1">
+      <c r="A570" s="1" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A570" s="1" t="s">
+      <c r="B570" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="B570" s="1" t="s">
+    </row>
+    <row r="571" spans="1:2" hidden="1">
+      <c r="A571" s="1" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A571" s="1" t="s">
+      <c r="B571" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="B571" s="1" t="s">
+    </row>
+    <row r="572" spans="1:2" hidden="1">
+      <c r="A572" s="1" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A572" s="1" t="s">
+      <c r="B572" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B572" s="1" t="s">
+    </row>
+    <row r="573" spans="1:2" hidden="1">
+      <c r="A573" s="1" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A573" s="1" t="s">
+      <c r="B573" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="B573" s="1" t="s">
+    </row>
+    <row r="574" spans="1:2" hidden="1">
+      <c r="A574" s="1" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A574" s="1" t="s">
+      <c r="B574" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="B574" s="1" t="s">
+    </row>
+    <row r="575" spans="1:2" hidden="1">
+      <c r="A575" s="1" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A575" s="1" t="s">
+      <c r="B575" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="B575" s="1" t="s">
+    </row>
+    <row r="576" spans="1:2" hidden="1">
+      <c r="A576" s="1" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A576" s="1" t="s">
+      <c r="B576" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="B576" s="1" t="s">
+    </row>
+    <row r="577" spans="1:2" hidden="1">
+      <c r="A577" s="1" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A577" s="1" t="s">
+      <c r="B577" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="B577" s="1" t="s">
+    </row>
+    <row r="578" spans="1:2" hidden="1">
+      <c r="A578" s="1" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A578" s="1" t="s">
+      <c r="B578" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="B578" s="1" t="s">
+    </row>
+    <row r="579" spans="1:2" hidden="1">
+      <c r="A579" s="1" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A579" s="1" t="s">
+      <c r="B579" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="B579" s="1" t="s">
+    </row>
+    <row r="580" spans="1:2" hidden="1">
+      <c r="A580" s="1" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A580" s="1" t="s">
+      <c r="B580" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="B580" s="1" t="s">
+    </row>
+    <row r="581" spans="1:2" hidden="1">
+      <c r="A581" s="1" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A581" s="1" t="s">
+      <c r="B581" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="B581" s="1" t="s">
+    </row>
+    <row r="582" spans="1:2" hidden="1">
+      <c r="A582" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A582" s="1" t="s">
+      <c r="B582" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="B582" s="1" t="s">
+    </row>
+    <row r="583" spans="1:2" hidden="1">
+      <c r="A583" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B583" s="1" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A583" s="1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B583" s="1" t="s">
+    <row r="584" spans="1:2" hidden="1">
+      <c r="A584" s="1" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A584" s="1" t="s">
+      <c r="B584" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="B584" s="1" t="s">
+    </row>
+    <row r="585" spans="1:2" hidden="1">
+      <c r="A585" s="1" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A585" s="1" t="s">
+      <c r="B585" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="B585" s="1" t="s">
+    </row>
+    <row r="586" spans="1:2" hidden="1">
+      <c r="A586" s="1" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A586" s="1" t="s">
+      <c r="B586" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="B586" s="1" t="s">
+    </row>
+    <row r="587" spans="1:2" hidden="1">
+      <c r="A587" s="1" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A587" s="1" t="s">
+      <c r="B587" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="B587" s="1" t="s">
+    </row>
+    <row r="588" spans="1:2" hidden="1">
+      <c r="A588" s="1" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A588" s="1" t="s">
+      <c r="B588" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="B588" s="1" t="s">
+    </row>
+    <row r="589" spans="1:2" hidden="1">
+      <c r="A589" s="1" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A589" s="1" t="s">
+      <c r="B589" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="B589" s="1" t="s">
+    </row>
+    <row r="590" spans="1:2" hidden="1">
+      <c r="A590" s="1" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A590" s="1" t="s">
+      <c r="B590" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="B590" s="1" t="s">
+    </row>
+    <row r="591" spans="1:2" hidden="1">
+      <c r="A591" s="1" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A591" s="1" t="s">
+      <c r="B591" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="B591" s="1" t="s">
+    </row>
+    <row r="592" spans="1:2" hidden="1">
+      <c r="A592" s="1" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A592" s="1" t="s">
+      <c r="B592" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="B592" s="1" t="s">
+    </row>
+    <row r="593" spans="1:2" hidden="1">
+      <c r="A593" s="1" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A593" s="1" t="s">
+      <c r="B593" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="B593" s="1" t="s">
+    </row>
+    <row r="594" spans="1:2" hidden="1">
+      <c r="A594" s="1" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A594" s="1" t="s">
+      <c r="B594" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="B594" s="1" t="s">
+    </row>
+    <row r="595" spans="1:2" hidden="1">
+      <c r="A595" s="1" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A595" s="1" t="s">
+      <c r="B595" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="B595" s="1" t="s">
+    </row>
+    <row r="596" spans="1:2" hidden="1">
+      <c r="A596" s="1" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A596" s="1" t="s">
+      <c r="B596" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="B596" s="1" t="s">
+    </row>
+    <row r="597" spans="1:2" hidden="1">
+      <c r="A597" s="1" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A597" s="1" t="s">
+      <c r="B597" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="B597" s="1" t="s">
+    </row>
+    <row r="598" spans="1:2" hidden="1">
+      <c r="A598" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B598" s="1" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A598" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B598" s="1" t="s">
+    <row r="599" spans="1:2" hidden="1">
+      <c r="A599" s="1" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A599" s="1" t="s">
+      <c r="B599" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="B599" s="1" t="s">
+    </row>
+    <row r="600" spans="1:2" hidden="1">
+      <c r="A600" s="1" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A600" s="1" t="s">
+      <c r="B600" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="B600" s="1" t="s">
+    </row>
+    <row r="601" spans="1:2" hidden="1">
+      <c r="A601" s="1" t="s">
         <v>1193</v>
       </c>
-    </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A601" s="1" t="s">
+      <c r="B601" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="B601" s="1" t="s">
+    </row>
+    <row r="602" spans="1:2" hidden="1">
+      <c r="A602" s="1" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A602" s="1" t="s">
+      <c r="B602" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="B602" s="1" t="s">
+    </row>
+    <row r="603" spans="1:2" hidden="1">
+      <c r="A603" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B603" s="1" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A603" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B603" s="1" t="s">
+    <row r="604" spans="1:2" hidden="1">
+      <c r="A604" s="1" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A604" s="1" t="s">
+      <c r="B604" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="B604" s="1" t="s">
+    </row>
+    <row r="605" spans="1:2" hidden="1">
+      <c r="A605" s="1" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A605" s="1" t="s">
+      <c r="B605" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="B605" s="1" t="s">
+    </row>
+    <row r="606" spans="1:2" hidden="1">
+      <c r="A606" s="1" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A606" s="1" t="s">
+      <c r="B606" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="B606" s="1" t="s">
+    </row>
+    <row r="607" spans="1:2" hidden="1">
+      <c r="A607" s="1" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A607" s="1" t="s">
+      <c r="B607" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="B607" s="1" t="s">
+    </row>
+    <row r="608" spans="1:2" hidden="1">
+      <c r="A608" s="1" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A608" s="1" t="s">
+      <c r="B608" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="B608" s="1" t="s">
+    </row>
+    <row r="609" spans="1:2" hidden="1">
+      <c r="A609" s="1" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A609" s="1" t="s">
+      <c r="B609" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="B609" s="1" t="s">
+    </row>
+    <row r="610" spans="1:2" hidden="1">
+      <c r="A610" s="1" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A610" s="1" t="s">
+      <c r="B610" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="B610" s="1" t="s">
+    </row>
+    <row r="611" spans="1:2" hidden="1">
+      <c r="A611" s="1" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A611" s="1" t="s">
+      <c r="B611" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="B611" s="1" t="s">
+    </row>
+    <row r="612" spans="1:2" hidden="1">
+      <c r="A612" s="1" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A612" s="1" t="s">
+      <c r="B612" s="1" t="s">
         <v>1215</v>
       </c>
-      <c r="B612" s="1" t="s">
+    </row>
+    <row r="613" spans="1:2" hidden="1">
+      <c r="A613" s="1" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A613" s="1" t="s">
+      <c r="B613" s="1" t="s">
         <v>1217</v>
       </c>
-      <c r="B613" s="1" t="s">
+    </row>
+    <row r="614" spans="1:2" hidden="1">
+      <c r="A614" s="1" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A614" s="1" t="s">
+      <c r="B614" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="B614" s="1" t="s">
+    </row>
+    <row r="615" spans="1:2" hidden="1">
+      <c r="A615" s="1" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A615" s="1" t="s">
+      <c r="B615" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="B615" s="1" t="s">
+    </row>
+    <row r="616" spans="1:2" hidden="1">
+      <c r="A616" s="1" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A616" s="1" t="s">
+      <c r="B616" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="B616" s="1" t="s">
+    </row>
+    <row r="617" spans="1:2" hidden="1">
+      <c r="A617" s="1" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A617" s="1" t="s">
+      <c r="B617" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="B617" s="1" t="s">
+    </row>
+    <row r="618" spans="1:2" hidden="1">
+      <c r="A618" s="1" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A618" s="1" t="s">
+      <c r="B618" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="B618" s="1" t="s">
+    </row>
+    <row r="619" spans="1:2" hidden="1">
+      <c r="A619" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B619" s="1" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A619" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B619" s="1" t="s">
+    <row r="620" spans="1:2" hidden="1">
+      <c r="A620" s="1" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A620" s="1" t="s">
+      <c r="B620" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="B620" s="1" t="s">
+    </row>
+    <row r="621" spans="1:2" hidden="1">
+      <c r="A621" s="1" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A621" s="1" t="s">
+      <c r="B621" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="B621" s="1" t="s">
+    </row>
+    <row r="622" spans="1:2" hidden="1">
+      <c r="A622" s="1" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A622" s="1" t="s">
+      <c r="B622" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="B622" s="1" t="s">
+    </row>
+    <row r="623" spans="1:2" hidden="1">
+      <c r="A623" s="1" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A623" s="1" t="s">
+      <c r="B623" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="B623" s="1" t="s">
+    </row>
+    <row r="624" spans="1:2" hidden="1">
+      <c r="A624" s="1" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A624" s="1" t="s">
+      <c r="B624" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="B624" s="1" t="s">
+    </row>
+    <row r="625" spans="1:2" hidden="1">
+      <c r="A625" s="1" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A625" s="1" t="s">
+      <c r="B625" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="B625" s="1" t="s">
+    </row>
+    <row r="626" spans="1:2" hidden="1">
+      <c r="A626" s="1" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A626" s="1" t="s">
+      <c r="B626" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="B626" s="1" t="s">
+    </row>
+    <row r="627" spans="1:2" hidden="1">
+      <c r="A627" s="1" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A627" s="1" t="s">
+      <c r="B627" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="B627" s="1" t="s">
+    </row>
+    <row r="628" spans="1:2" hidden="1">
+      <c r="A628" s="1" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A628" s="1" t="s">
+      <c r="B628" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="B628" s="1" t="s">
+    </row>
+    <row r="629" spans="1:2" hidden="1">
+      <c r="A629" s="1" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A629" s="1" t="s">
+      <c r="B629" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="B629" s="1" t="s">
+    </row>
+    <row r="630" spans="1:2" hidden="1">
+      <c r="A630" s="1" t="s">
         <v>1249</v>
       </c>
-    </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A630" s="1" t="s">
+      <c r="B630" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="B630" s="1" t="s">
+    </row>
+    <row r="631" spans="1:2" hidden="1">
+      <c r="A631" s="1" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A631" s="1" t="s">
+      <c r="B631" s="1" t="s">
         <v>1252</v>
       </c>
-      <c r="B631" s="1" t="s">
+    </row>
+    <row r="632" spans="1:2" hidden="1">
+      <c r="A632" s="1" t="s">
         <v>1253</v>
       </c>
-    </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A632" s="1" t="s">
+      <c r="B632" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="B632" s="1" t="s">
+    </row>
+    <row r="633" spans="1:2" hidden="1">
+      <c r="A633" s="1" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A633" s="1" t="s">
+      <c r="B633" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="B633" s="1" t="s">
+    </row>
+    <row r="634" spans="1:2" hidden="1">
+      <c r="A634" s="1" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A634" s="1" t="s">
+      <c r="B634" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="B634" s="1" t="s">
+    </row>
+    <row r="635" spans="1:2" hidden="1">
+      <c r="A635" s="1" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A635" s="1" t="s">
+      <c r="B635" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="B635" s="1" t="s">
+    </row>
+    <row r="636" spans="1:2" hidden="1">
+      <c r="A636" s="1" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A636" s="1" t="s">
+      <c r="B636" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="B636" s="1" t="s">
+    </row>
+    <row r="637" spans="1:2" hidden="1">
+      <c r="A637" s="1" t="s">
         <v>1263</v>
       </c>
-    </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A637" s="1" t="s">
+      <c r="B637" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="B637" s="1" t="s">
+    </row>
+    <row r="638" spans="1:2" hidden="1">
+      <c r="A638" s="1" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A638" s="1" t="s">
+      <c r="B638" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="B638" s="1" t="s">
+    </row>
+    <row r="639" spans="1:2" hidden="1">
+      <c r="A639" s="1" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A639" s="1" t="s">
+      <c r="B639" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="B639" s="1" t="s">
+    </row>
+    <row r="640" spans="1:2" hidden="1">
+      <c r="A640" s="1" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A640" s="1" t="s">
+      <c r="B640" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="B640" s="1" t="s">
+    </row>
+    <row r="641" spans="1:2" hidden="1">
+      <c r="A641" s="1" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A641" s="1" t="s">
+      <c r="B641" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="B641" s="1" t="s">
+    </row>
+    <row r="642" spans="1:2" hidden="1">
+      <c r="A642" s="1" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A642" s="1" t="s">
+      <c r="B642" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="B642" s="1" t="s">
+    </row>
+    <row r="643" spans="1:2" hidden="1">
+      <c r="A643" s="1" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A643" s="1" t="s">
+      <c r="B643" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="B643" s="1" t="s">
+    </row>
+    <row r="644" spans="1:2" hidden="1">
+      <c r="A644" s="1" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A644" s="1" t="s">
+      <c r="B644" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B644" s="1" t="s">
+    </row>
+    <row r="645" spans="1:2" hidden="1">
+      <c r="A645" s="1" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A645" s="1" t="s">
+      <c r="B645" s="1" t="s">
         <v>1280</v>
       </c>
-      <c r="B645" s="1" t="s">
+    </row>
+    <row r="646" spans="1:2" hidden="1">
+      <c r="A646" s="1" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A646" s="1" t="s">
+      <c r="B646" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="B646" s="1" t="s">
+    </row>
+    <row r="647" spans="1:2" hidden="1">
+      <c r="A647" s="1" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A647" s="1" t="s">
+      <c r="B647" s="1" t="s">
         <v>1284</v>
       </c>
-      <c r="B647" s="1" t="s">
+    </row>
+    <row r="648" spans="1:2" hidden="1">
+      <c r="A648" s="1" t="s">
         <v>1285</v>
       </c>
-    </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A648" s="1" t="s">
+      <c r="B648" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="B648" s="1" t="s">
+    </row>
+    <row r="649" spans="1:2" hidden="1">
+      <c r="A649" s="1" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A649" s="1" t="s">
+      <c r="B649" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="B649" s="1" t="s">
+    </row>
+    <row r="650" spans="1:2" hidden="1">
+      <c r="A650" s="1" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A650" s="1" t="s">
+      <c r="B650" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="B650" s="1" t="s">
+    </row>
+    <row r="651" spans="1:2" hidden="1">
+      <c r="A651" s="1" t="s">
         <v>1291</v>
       </c>
-    </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A651" s="1" t="s">
+      <c r="B651" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="B651" s="1" t="s">
+    </row>
+    <row r="652" spans="1:2" hidden="1">
+      <c r="A652" s="1" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A652" s="1" t="s">
+      <c r="B652" s="1" t="s">
         <v>1294</v>
       </c>
-      <c r="B652" s="1" t="s">
+    </row>
+    <row r="653" spans="1:2" hidden="1">
+      <c r="A653" s="1" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A653" s="1" t="s">
+      <c r="B653" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="B653" s="1" t="s">
+    </row>
+    <row r="654" spans="1:2" hidden="1">
+      <c r="A654" s="1" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A654" s="1" t="s">
+      <c r="B654" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="B654" s="1" t="s">
+    </row>
+    <row r="655" spans="1:2" hidden="1">
+      <c r="A655" s="1" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A655" s="1" t="s">
+      <c r="B655" s="1" t="s">
         <v>1300</v>
       </c>
-      <c r="B655" s="1" t="s">
+    </row>
+    <row r="656" spans="1:2" hidden="1">
+      <c r="A656" s="1" t="s">
         <v>1301</v>
       </c>
-    </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A656" s="1" t="s">
+      <c r="B656" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="B656" s="1" t="s">
+    </row>
+    <row r="657" spans="1:2" hidden="1">
+      <c r="A657" s="1" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A657" s="1" t="s">
+      <c r="B657" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="B657" s="1" t="s">
+    </row>
+    <row r="658" spans="1:2" hidden="1">
+      <c r="A658" s="1" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A658" s="1" t="s">
+      <c r="B658" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="B658" s="1" t="s">
+    </row>
+    <row r="659" spans="1:2" hidden="1">
+      <c r="A659" s="1" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A659" s="1" t="s">
+      <c r="B659" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="B659" s="1" t="s">
+    </row>
+    <row r="660" spans="1:2" hidden="1">
+      <c r="A660" s="1" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A660" s="1" t="s">
+      <c r="B660" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="B660" s="1" t="s">
+    </row>
+    <row r="661" spans="1:2" hidden="1">
+      <c r="A661" s="1" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A661" s="1" t="s">
+      <c r="B661" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="B661" s="1" t="s">
+    </row>
+    <row r="662" spans="1:2" hidden="1">
+      <c r="A662" s="1" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A662" s="1" t="s">
+      <c r="B662" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="B662" s="1" t="s">
+    </row>
+    <row r="663" spans="1:2" hidden="1">
+      <c r="A663" s="1" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A663" s="1" t="s">
+      <c r="B663" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="B663" s="1" t="s">
+    </row>
+    <row r="664" spans="1:2" hidden="1">
+      <c r="A664" s="1" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A664" s="1" t="s">
+      <c r="B664" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="B664" s="1" t="s">
+    </row>
+    <row r="665" spans="1:2" hidden="1">
+      <c r="A665" s="1" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A665" s="1" t="s">
+      <c r="B665" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="B665" s="1" t="s">
+    </row>
+    <row r="666" spans="1:2" hidden="1">
+      <c r="A666" s="1" t="s">
         <v>1321</v>
       </c>
-    </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A666" s="1" t="s">
+      <c r="B666" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="B666" s="1" t="s">
+    </row>
+    <row r="667" spans="1:2" hidden="1">
+      <c r="A667" s="1" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A667" s="1" t="s">
+      <c r="B667" s="1" t="s">
         <v>1324</v>
       </c>
-      <c r="B667" s="1" t="s">
+    </row>
+    <row r="668" spans="1:2" hidden="1">
+      <c r="A668" s="1" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A668" s="1" t="s">
+      <c r="B668" s="1" t="s">
         <v>1326</v>
       </c>
-      <c r="B668" s="1" t="s">
+    </row>
+    <row r="669" spans="1:2" hidden="1">
+      <c r="A669" s="1" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A669" s="1" t="s">
+      <c r="B669" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="B669" s="1" t="s">
+    </row>
+    <row r="670" spans="1:2" hidden="1">
+      <c r="A670" s="1" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A670" s="1" t="s">
+      <c r="B670" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="B670" s="1" t="s">
+    </row>
+    <row r="671" spans="1:2" hidden="1">
+      <c r="A671" s="1" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A671" s="1" t="s">
+      <c r="B671" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="B671" s="1" t="s">
+    </row>
+    <row r="672" spans="1:2" hidden="1">
+      <c r="A672" s="1" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A672" s="1" t="s">
+      <c r="B672" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="B672" s="1" t="s">
+    </row>
+    <row r="673" spans="1:2" hidden="1">
+      <c r="A673" s="1" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A673" s="1" t="s">
+      <c r="B673" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="B673" s="1" t="s">
+    </row>
+    <row r="674" spans="1:2" hidden="1">
+      <c r="A674" s="1" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A674" s="1" t="s">
+      <c r="B674" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="B674" s="1" t="s">
+    </row>
+    <row r="675" spans="1:2" hidden="1">
+      <c r="A675" s="1" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A675" s="1" t="s">
+      <c r="B675" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="B675" s="1" t="s">
+    </row>
+    <row r="676" spans="1:2" hidden="1">
+      <c r="A676" s="1" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A676" s="1" t="s">
+      <c r="B676" s="1" t="s">
         <v>1342</v>
       </c>
-      <c r="B676" s="1" t="s">
+    </row>
+    <row r="677" spans="1:2" hidden="1">
+      <c r="A677" s="1" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A677" s="1" t="s">
+      <c r="B677" s="1" t="s">
         <v>1344</v>
       </c>
-      <c r="B677" s="1" t="s">
+    </row>
+    <row r="678" spans="1:2" hidden="1">
+      <c r="A678" s="1" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A678" s="1" t="s">
+      <c r="B678" s="1" t="s">
         <v>1346</v>
       </c>
-      <c r="B678" s="1" t="s">
+    </row>
+    <row r="679" spans="1:2" hidden="1">
+      <c r="A679" s="1" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A679" s="1" t="s">
+      <c r="B679" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="B679" s="1" t="s">
+    </row>
+    <row r="680" spans="1:2" hidden="1">
+      <c r="A680" s="1" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A680" s="1" t="s">
+      <c r="B680" s="1" t="s">
         <v>1350</v>
       </c>
-      <c r="B680" s="1" t="s">
+    </row>
+    <row r="681" spans="1:2" hidden="1">
+      <c r="A681" s="1" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A681" s="1" t="s">
+      <c r="B681" s="1" t="s">
         <v>1352</v>
       </c>
-      <c r="B681" s="1" t="s">
+    </row>
+    <row r="682" spans="1:2" hidden="1">
+      <c r="A682" s="1" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A682" s="1" t="s">
+      <c r="B682" s="1" t="s">
         <v>1354</v>
       </c>
-      <c r="B682" s="1" t="s">
+    </row>
+    <row r="683" spans="1:2" hidden="1">
+      <c r="A683" s="1" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A683" s="1" t="s">
+      <c r="B683" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="B683" s="1" t="s">
+    </row>
+    <row r="684" spans="1:2" hidden="1">
+      <c r="A684" s="1" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A684" s="1" t="s">
+      <c r="B684" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="B684" s="1" t="s">
+    </row>
+    <row r="685" spans="1:2" hidden="1">
+      <c r="A685" s="1" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A685" s="1" t="s">
+      <c r="B685" s="1" t="s">
         <v>1360</v>
       </c>
-      <c r="B685" s="1" t="s">
+    </row>
+    <row r="686" spans="1:2" hidden="1">
+      <c r="A686" s="1" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A686" s="1" t="s">
+      <c r="B686" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="B686" s="1" t="s">
+    </row>
+    <row r="687" spans="1:2" hidden="1">
+      <c r="A687" s="1" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A687" s="1" t="s">
+      <c r="B687" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="B687" s="1" t="s">
+    </row>
+    <row r="688" spans="1:2" hidden="1">
+      <c r="A688" s="1" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A688" s="1" t="s">
+      <c r="B688" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="B688" s="1" t="s">
+    </row>
+    <row r="689" spans="1:2" hidden="1">
+      <c r="A689" s="1" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A689" s="1" t="s">
+      <c r="B689" s="1" t="s">
         <v>1368</v>
       </c>
-      <c r="B689" s="1" t="s">
+    </row>
+    <row r="690" spans="1:2" hidden="1">
+      <c r="A690" s="1" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A690" s="1" t="s">
+      <c r="B690" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="B690" s="1" t="s">
+    </row>
+    <row r="691" spans="1:2" hidden="1">
+      <c r="A691" s="1" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A691" s="1" t="s">
+      <c r="B691" s="1" t="s">
         <v>1372</v>
       </c>
-      <c r="B691" s="1" t="s">
+    </row>
+    <row r="692" spans="1:2" hidden="1">
+      <c r="A692" s="1" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A692" s="1" t="s">
+      <c r="B692" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="B692" s="1" t="s">
+    </row>
+    <row r="693" spans="1:2" hidden="1">
+      <c r="A693" s="1" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A693" s="1" t="s">
+      <c r="B693" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="B693" s="1" t="s">
+    </row>
+    <row r="694" spans="1:2" hidden="1">
+      <c r="A694" s="1" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A694" s="1" t="s">
+      <c r="B694" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="B694" s="1" t="s">
+    </row>
+    <row r="695" spans="1:2" hidden="1">
+      <c r="A695" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B695" s="1" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A695" s="1" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B695" s="1" t="s">
+    <row r="696" spans="1:2" hidden="1">
+      <c r="A696" s="1" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A696" s="1" t="s">
+      <c r="B696" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="B696" s="1" t="s">
+    </row>
+    <row r="697" spans="1:2" hidden="1">
+      <c r="A697" s="1" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A697" s="1" t="s">
+      <c r="B697" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="B697" s="1" t="s">
+    </row>
+    <row r="698" spans="1:2" hidden="1">
+      <c r="A698" s="1" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A698" s="1" t="s">
+      <c r="B698" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="B698" s="1" t="s">
+    </row>
+    <row r="699" spans="1:2" hidden="1">
+      <c r="A699" s="1" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A699" s="1" t="s">
+      <c r="B699" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="B699" s="1" t="s">
+    </row>
+    <row r="700" spans="1:2" hidden="1">
+      <c r="A700" s="1" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A700" s="1" t="s">
+      <c r="B700" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="B700" s="1" t="s">
+    </row>
+    <row r="701" spans="1:2" hidden="1">
+      <c r="A701" s="1" t="s">
         <v>1390</v>
       </c>
-    </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A701" s="1" t="s">
+      <c r="B701" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="B701" s="1" t="s">
+    </row>
+    <row r="702" spans="1:2" hidden="1">
+      <c r="A702" s="1" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A702" s="1" t="s">
+      <c r="B702" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="B702" s="1" t="s">
+    </row>
+    <row r="703" spans="1:2" hidden="1">
+      <c r="A703" s="1" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A703" s="1" t="s">
+      <c r="B703" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="B703" s="1" t="s">
+    </row>
+    <row r="704" spans="1:2" hidden="1">
+      <c r="A704" s="1" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A704" s="1" t="s">
+      <c r="B704" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="B704" s="1" t="s">
+    </row>
+    <row r="705" spans="1:2" hidden="1">
+      <c r="A705" s="1" t="s">
         <v>1398</v>
       </c>
-    </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A705" s="1" t="s">
+      <c r="B705" s="1" t="s">
         <v>1399</v>
       </c>
-      <c r="B705" s="1" t="s">
+    </row>
+    <row r="706" spans="1:2" hidden="1">
+      <c r="A706" s="1" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A706" s="1" t="s">
+      <c r="B706" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="B706" s="1" t="s">
+    </row>
+    <row r="707" spans="1:2" hidden="1">
+      <c r="A707" s="1" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A707" s="1" t="s">
+      <c r="B707" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="B707" s="1" t="s">
+    </row>
+    <row r="708" spans="1:2" hidden="1">
+      <c r="A708" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B708" s="1" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A708" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="B708" s="1" t="s">
+    <row r="709" spans="1:2" hidden="1">
+      <c r="A709" s="1" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A709" s="1" t="s">
+      <c r="B709" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="B709" s="1" t="s">
+    </row>
+    <row r="710" spans="1:2" hidden="1">
+      <c r="A710" s="1" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A710" s="1" t="s">
+      <c r="B710" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="B710" s="1" t="s">
+    </row>
+    <row r="711" spans="1:2" hidden="1">
+      <c r="A711" s="1" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A711" s="1" t="s">
+      <c r="B711" s="1" t="s">
         <v>1410</v>
       </c>
-      <c r="B711" s="1" t="s">
+    </row>
+    <row r="712" spans="1:2" hidden="1">
+      <c r="A712" s="1" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A712" s="1" t="s">
+      <c r="B712" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="B712" s="1" t="s">
+    </row>
+    <row r="713" spans="1:2" hidden="1">
+      <c r="A713" s="1" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A713" s="1" t="s">
+      <c r="B713" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="B713" s="1" t="s">
+    </row>
+    <row r="714" spans="1:2" hidden="1">
+      <c r="A714" s="1" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A714" s="1" t="s">
+      <c r="B714" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="B714" s="1" t="s">
+    </row>
+    <row r="715" spans="1:2" hidden="1">
+      <c r="A715" s="1" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A715" s="1" t="s">
+      <c r="B715" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="B715" s="1" t="s">
+    </row>
+    <row r="716" spans="1:2" hidden="1">
+      <c r="A716" s="1" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A716" s="1" t="s">
+      <c r="B716" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="B716" s="1" t="s">
+    </row>
+    <row r="717" spans="1:2" hidden="1">
+      <c r="A717" s="1" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A717" s="1" t="s">
+      <c r="B717" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="B717" s="1" t="s">
+    </row>
+    <row r="718" spans="1:2" hidden="1">
+      <c r="A718" s="1" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A718" s="1" t="s">
+      <c r="B718" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="B718" s="1" t="s">
+    </row>
+    <row r="719" spans="1:2" hidden="1">
+      <c r="A719" s="1" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A719" s="1" t="s">
+      <c r="B719" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="B719" s="1" t="s">
+    </row>
+    <row r="720" spans="1:2" hidden="1">
+      <c r="A720" s="1" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A720" s="1" t="s">
+      <c r="B720" s="1" t="s">
         <v>1428</v>
       </c>
-      <c r="B720" s="1" t="s">
+    </row>
+    <row r="721" spans="1:2" hidden="1">
+      <c r="A721" s="1" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A721" s="1" t="s">
+      <c r="B721" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="B721" s="1" t="s">
+    </row>
+    <row r="722" spans="1:2" hidden="1">
+      <c r="A722" s="1" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A722" s="1" t="s">
+      <c r="B722" s="1" t="s">
         <v>1432</v>
       </c>
-      <c r="B722" s="1" t="s">
+    </row>
+    <row r="723" spans="1:2" hidden="1">
+      <c r="A723" s="1" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A723" s="1" t="s">
+      <c r="B723" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="B723" s="1" t="s">
+    </row>
+    <row r="724" spans="1:2" hidden="1">
+      <c r="A724" s="1" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A724" s="1" t="s">
+      <c r="B724" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="B724" s="1" t="s">
+    </row>
+    <row r="725" spans="1:2" hidden="1">
+      <c r="A725" s="1" t="s">
         <v>1437</v>
       </c>
-    </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A725" s="1" t="s">
+      <c r="B725" s="1" t="s">
         <v>1438</v>
       </c>
-      <c r="B725" s="1" t="s">
+    </row>
+    <row r="726" spans="1:2" hidden="1">
+      <c r="A726" s="1" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A726" s="1" t="s">
+      <c r="B726" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="B726" s="1" t="s">
+    </row>
+    <row r="727" spans="1:2" hidden="1">
+      <c r="A727" s="1" t="s">
         <v>1441</v>
       </c>
-    </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A727" s="1" t="s">
+      <c r="B727" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="B727" s="1" t="s">
+    </row>
+    <row r="728" spans="1:2" hidden="1">
+      <c r="A728" s="1" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A728" s="1" t="s">
+      <c r="B728" s="1" t="s">
         <v>1444</v>
       </c>
-      <c r="B728" s="1" t="s">
+    </row>
+    <row r="729" spans="1:2" hidden="1">
+      <c r="A729" s="1" t="s">
         <v>1445</v>
       </c>
-    </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A729" s="1" t="s">
+      <c r="B729" s="1" t="s">
         <v>1446</v>
       </c>
-      <c r="B729" s="1" t="s">
+    </row>
+    <row r="730" spans="1:2" hidden="1">
+      <c r="A730" s="1" t="s">
         <v>1447</v>
       </c>
-    </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A730" s="1" t="s">
+      <c r="B730" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="B730" s="1" t="s">
+    </row>
+    <row r="731" spans="1:2" hidden="1">
+      <c r="A731" s="1" t="s">
         <v>1449</v>
       </c>
-    </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A731" s="1" t="s">
+      <c r="B731" s="1" t="s">
         <v>1450</v>
       </c>
-      <c r="B731" s="1" t="s">
+    </row>
+    <row r="732" spans="1:2" hidden="1">
+      <c r="A732" s="1" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A732" s="1" t="s">
+      <c r="B732" s="1" t="s">
         <v>1452</v>
       </c>
-      <c r="B732" s="1" t="s">
+    </row>
+    <row r="733" spans="1:2" hidden="1">
+      <c r="A733" s="1" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A733" s="1" t="s">
+      <c r="B733" s="1" t="s">
         <v>1454</v>
       </c>
-      <c r="B733" s="1" t="s">
+    </row>
+    <row r="734" spans="1:2" hidden="1">
+      <c r="A734" s="1" t="s">
         <v>1455</v>
       </c>
-    </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A734" s="1" t="s">
+      <c r="B734" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="B734" s="1" t="s">
+    </row>
+    <row r="735" spans="1:2" hidden="1">
+      <c r="A735" s="1" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A735" s="1" t="s">
+      <c r="B735" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="B735" s="1" t="s">
+    </row>
+    <row r="736" spans="1:2" hidden="1">
+      <c r="A736" s="1" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A736" s="1" t="s">
+      <c r="B736" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="B736" s="1" t="s">
+    </row>
+    <row r="737" spans="1:2" hidden="1">
+      <c r="A737" s="1" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A737" s="1" t="s">
+      <c r="B737" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="B737" s="1" t="s">
+    </row>
+    <row r="738" spans="1:2" hidden="1">
+      <c r="A738" s="1" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A738" s="1" t="s">
+      <c r="B738" s="1" t="s">
         <v>1464</v>
       </c>
-      <c r="B738" s="1" t="s">
+    </row>
+    <row r="739" spans="1:2" hidden="1">
+      <c r="A739" s="1" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A739" s="1" t="s">
+      <c r="B739" s="1" t="s">
         <v>1466</v>
       </c>
-      <c r="B739" s="1" t="s">
+    </row>
+    <row r="740" spans="1:2" hidden="1">
+      <c r="A740" s="1" t="s">
         <v>1467</v>
       </c>
-    </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A740" s="1" t="s">
+      <c r="B740" s="1" t="s">
         <v>1468</v>
       </c>
-      <c r="B740" s="1" t="s">
+    </row>
+    <row r="741" spans="1:2" hidden="1">
+      <c r="A741" s="1" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A741" s="1" t="s">
+      <c r="B741" s="1" t="s">
         <v>1470</v>
       </c>
-      <c r="B741" s="1" t="s">
+    </row>
+    <row r="742" spans="1:2" hidden="1">
+      <c r="A742" s="1" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A742" s="1" t="s">
+      <c r="B742" s="1" t="s">
         <v>1472</v>
       </c>
-      <c r="B742" s="1" t="s">
+    </row>
+    <row r="743" spans="1:2" hidden="1">
+      <c r="A743" s="1" t="s">
         <v>1473</v>
       </c>
-    </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A743" s="1" t="s">
+      <c r="B743" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="B743" s="1" t="s">
+    </row>
+    <row r="744" spans="1:2" hidden="1">
+      <c r="A744" s="1" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A744" s="1" t="s">
+      <c r="B744" s="1" t="s">
         <v>1476</v>
       </c>
-      <c r="B744" s="1" t="s">
+    </row>
+    <row r="745" spans="1:2" hidden="1">
+      <c r="A745" s="1" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A745" s="1" t="s">
+      <c r="B745" s="1" t="s">
         <v>1478</v>
       </c>
-      <c r="B745" s="1" t="s">
+    </row>
+    <row r="746" spans="1:2" hidden="1">
+      <c r="A746" s="1" t="s">
         <v>1479</v>
       </c>
-    </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A746" s="1" t="s">
+      <c r="B746" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="B746" s="1" t="s">
+    </row>
+    <row r="747" spans="1:2" hidden="1">
+      <c r="A747" s="1" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A747" s="1" t="s">
+      <c r="B747" s="1" t="s">
         <v>1482</v>
       </c>
-      <c r="B747" s="1" t="s">
+    </row>
+    <row r="748" spans="1:2" hidden="1">
+      <c r="A748" s="1" t="s">
         <v>1483</v>
       </c>
-    </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A748" s="1" t="s">
+      <c r="B748" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="B748" s="1" t="s">
+    </row>
+    <row r="749" spans="1:2" hidden="1">
+      <c r="A749" s="1" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A749" s="1" t="s">
+      <c r="B749" s="1" t="s">
         <v>1486</v>
       </c>
-      <c r="B749" s="1" t="s">
+    </row>
+    <row r="750" spans="1:2" hidden="1">
+      <c r="A750" s="1" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A750" s="1" t="s">
+      <c r="B750" s="1" t="s">
         <v>1488</v>
       </c>
-      <c r="B750" s="1" t="s">
+    </row>
+    <row r="751" spans="1:2" hidden="1">
+      <c r="A751" s="1" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A751" s="1" t="s">
+      <c r="B751" s="1" t="s">
         <v>1490</v>
       </c>
-      <c r="B751" s="1" t="s">
+    </row>
+    <row r="752" spans="1:2" hidden="1">
+      <c r="A752" s="1" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A752" s="1" t="s">
+      <c r="B752" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="B752" s="1" t="s">
+    </row>
+    <row r="753" spans="1:2" hidden="1">
+      <c r="A753" s="1" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A753" s="1" t="s">
+      <c r="B753" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="B753" s="1" t="s">
+    </row>
+    <row r="754" spans="1:2" hidden="1">
+      <c r="A754" s="1" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A754" s="1" t="s">
+      <c r="B754" s="1" t="s">
         <v>1496</v>
       </c>
-      <c r="B754" s="1" t="s">
+    </row>
+    <row r="755" spans="1:2" hidden="1">
+      <c r="A755" s="1" t="s">
         <v>1497</v>
       </c>
-    </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A755" s="1" t="s">
+      <c r="B755" s="1" t="s">
         <v>1498</v>
       </c>
-      <c r="B755" s="1" t="s">
+    </row>
+    <row r="756" spans="1:2" hidden="1">
+      <c r="A756" s="1" t="s">
         <v>1499</v>
       </c>
-    </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A756" s="1" t="s">
+      <c r="B756" s="1" t="s">
         <v>1500</v>
       </c>
-      <c r="B756" s="1" t="s">
+    </row>
+    <row r="757" spans="1:2" hidden="1">
+      <c r="A757" s="1" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A757" s="1" t="s">
+      <c r="B757" s="1" t="s">
         <v>1502</v>
       </c>
-      <c r="B757" s="1" t="s">
+    </row>
+    <row r="758" spans="1:2" hidden="1">
+      <c r="A758" s="1" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A758" s="1" t="s">
+      <c r="B758" s="1" t="s">
         <v>1504</v>
       </c>
-      <c r="B758" s="1" t="s">
+    </row>
+    <row r="759" spans="1:2" hidden="1">
+      <c r="A759" s="1" t="s">
         <v>1505</v>
       </c>
-    </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A759" s="1" t="s">
+      <c r="B759" s="1" t="s">
         <v>1506</v>
       </c>
-      <c r="B759" s="1" t="s">
+    </row>
+    <row r="760" spans="1:2" hidden="1">
+      <c r="A760" s="1" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A760" s="1" t="s">
+      <c r="B760" s="1" t="s">
         <v>1508</v>
       </c>
-      <c r="B760" s="1" t="s">
+    </row>
+    <row r="761" spans="1:2" hidden="1">
+      <c r="A761" s="1" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A761" s="1" t="s">
+      <c r="B761" s="1" t="s">
         <v>1510</v>
       </c>
-      <c r="B761" s="1" t="s">
+    </row>
+    <row r="762" spans="1:2" hidden="1">
+      <c r="A762" s="1" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A762" s="1" t="s">
+      <c r="B762" s="1" t="s">
         <v>1512</v>
       </c>
-      <c r="B762" s="1" t="s">
+    </row>
+    <row r="763" spans="1:2" hidden="1">
+      <c r="A763" s="1" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A763" s="1" t="s">
+      <c r="B763" s="1" t="s">
         <v>1514</v>
       </c>
-      <c r="B763" s="1" t="s">
+    </row>
+    <row r="764" spans="1:2" hidden="1">
+      <c r="A764" s="1" t="s">
         <v>1515</v>
       </c>
-    </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A764" s="1" t="s">
+      <c r="B764" s="1" t="s">
         <v>1516</v>
       </c>
-      <c r="B764" s="1" t="s">
+    </row>
+    <row r="765" spans="1:2" hidden="1">
+      <c r="A765" s="1" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A765" s="1" t="s">
+      <c r="B765" s="1" t="s">
         <v>1518</v>
       </c>
-      <c r="B765" s="1" t="s">
+    </row>
+    <row r="766" spans="1:2" hidden="1">
+      <c r="A766" s="1" t="s">
         <v>1519</v>
       </c>
-    </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A766" s="1" t="s">
+      <c r="B766" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="B766" s="1" t="s">
+    </row>
+    <row r="767" spans="1:2" hidden="1">
+      <c r="A767" s="1" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A767" s="1" t="s">
+      <c r="B767" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="B767" s="1" t="s">
+    </row>
+    <row r="768" spans="1:2" hidden="1">
+      <c r="A768" s="1" t="s">
         <v>1523</v>
       </c>
-    </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A768" s="1" t="s">
+      <c r="B768" s="1" t="s">
         <v>1524</v>
       </c>
-      <c r="B768" s="1" t="s">
+    </row>
+    <row r="769" spans="1:2" hidden="1">
+      <c r="A769" s="1" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A769" s="1" t="s">
+      <c r="B769" s="1" t="s">
         <v>1526</v>
       </c>
-      <c r="B769" s="1" t="s">
+    </row>
+    <row r="770" spans="1:2" hidden="1">
+      <c r="A770" s="1" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A770" s="1" t="s">
+      <c r="B770" s="1" t="s">
         <v>1528</v>
       </c>
-      <c r="B770" s="1" t="s">
+    </row>
+    <row r="771" spans="1:2" hidden="1">
+      <c r="A771" s="1" t="s">
         <v>1529</v>
       </c>
-    </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A771" s="1" t="s">
+      <c r="B771" s="1" t="s">
         <v>1530</v>
       </c>
-      <c r="B771" s="1" t="s">
+    </row>
+    <row r="772" spans="1:2" hidden="1">
+      <c r="A772" s="1" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A772" s="1" t="s">
+      <c r="B772" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="B772" s="1" t="s">
+    </row>
+    <row r="773" spans="1:2" hidden="1">
+      <c r="A773" s="1" t="s">
         <v>1533</v>
       </c>
-    </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A773" s="1" t="s">
+      <c r="B773" s="1" t="s">
         <v>1534</v>
       </c>
-      <c r="B773" s="1" t="s">
+    </row>
+    <row r="774" spans="1:2" hidden="1">
+      <c r="A774" s="1" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A774" s="1" t="s">
+      <c r="B774" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="B774" s="1" t="s">
+    </row>
+    <row r="775" spans="1:2" hidden="1">
+      <c r="A775" s="1" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A775" s="1" t="s">
+      <c r="B775" s="1" t="s">
         <v>1538</v>
       </c>
-      <c r="B775" s="1" t="s">
+    </row>
+    <row r="776" spans="1:2" hidden="1">
+      <c r="A776" s="1" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A776" s="1" t="s">
+      <c r="B776" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="B776" s="1" t="s">
+    </row>
+    <row r="777" spans="1:2" hidden="1">
+      <c r="A777" s="1" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A777" s="1" t="s">
+      <c r="B777" s="1" t="s">
         <v>1542</v>
       </c>
-      <c r="B777" s="1" t="s">
+    </row>
+    <row r="778" spans="1:2" hidden="1">
+      <c r="A778" s="1" t="s">
         <v>1543</v>
       </c>
-    </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A778" s="1" t="s">
+      <c r="B778" s="1" t="s">
         <v>1544</v>
       </c>
-      <c r="B778" s="1" t="s">
+    </row>
+    <row r="779" spans="1:2" hidden="1">
+      <c r="A779" s="1" t="s">
         <v>1545</v>
       </c>
-    </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A779" s="1" t="s">
+      <c r="B779" s="1" t="s">
         <v>1546</v>
       </c>
-      <c r="B779" s="1" t="s">
+    </row>
+    <row r="780" spans="1:2" hidden="1">
+      <c r="A780" s="1" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A780" s="1" t="s">
+      <c r="B780" s="1" t="s">
         <v>1548</v>
       </c>
-      <c r="B780" s="1" t="s">
+    </row>
+    <row r="781" spans="1:2" hidden="1">
+      <c r="A781" s="1" t="s">
         <v>1549</v>
       </c>
-    </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A781" s="1" t="s">
+      <c r="B781" s="1" t="s">
         <v>1550</v>
       </c>
-      <c r="B781" s="1" t="s">
+    </row>
+    <row r="782" spans="1:2" hidden="1">
+      <c r="A782" s="1" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A782" s="1" t="s">
+      <c r="B782" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="B782" s="1" t="s">
+    </row>
+    <row r="783" spans="1:2" hidden="1">
+      <c r="A783" s="1" t="s">
         <v>1553</v>
       </c>
-    </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A783" s="1" t="s">
+      <c r="B783" s="1" t="s">
         <v>1554</v>
       </c>
-      <c r="B783" s="1" t="s">
+    </row>
+    <row r="784" spans="1:2" hidden="1">
+      <c r="A784" s="1" t="s">
         <v>1555</v>
       </c>
-    </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A784" s="1" t="s">
+      <c r="B784" s="1" t="s">
         <v>1556</v>
       </c>
-      <c r="B784" s="1" t="s">
+    </row>
+    <row r="785" spans="1:2" hidden="1">
+      <c r="A785" s="1" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A785" s="1" t="s">
+      <c r="B785" s="1" t="s">
         <v>1558</v>
       </c>
-      <c r="B785" s="1" t="s">
+    </row>
+    <row r="786" spans="1:2" hidden="1">
+      <c r="A786" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B786" s="1" t="s">
         <v>1559</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A786" s="1" t="s">
-        <v>1558</v>
-      </c>
-      <c r="B786" s="1" t="s">
+    <row r="787" spans="1:2" hidden="1">
+      <c r="A787" s="1" t="s">
         <v>1560</v>
       </c>
-    </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A787" s="1" t="s">
+      <c r="B787" s="1" t="s">
         <v>1561</v>
       </c>
-      <c r="B787" s="1" t="s">
+    </row>
+    <row r="788" spans="1:2" hidden="1">
+      <c r="A788" s="1" t="s">
         <v>1562</v>
       </c>
-    </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A788" s="1" t="s">
+      <c r="B788" s="1" t="s">
         <v>1563</v>
       </c>
-      <c r="B788" s="1" t="s">
+    </row>
+    <row r="789" spans="1:2" hidden="1">
+      <c r="A789" s="1" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A789" s="1" t="s">
+      <c r="B789" s="1" t="s">
         <v>1565</v>
       </c>
-      <c r="B789" s="1" t="s">
+    </row>
+    <row r="790" spans="1:2" hidden="1">
+      <c r="A790" s="1" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A790" s="1" t="s">
+      <c r="B790" s="1" t="s">
         <v>1567</v>
       </c>
-      <c r="B790" s="1" t="s">
+    </row>
+    <row r="791" spans="1:2" hidden="1">
+      <c r="A791" s="1" t="s">
         <v>1568</v>
       </c>
-    </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A791" s="1" t="s">
+      <c r="B791" s="1" t="s">
         <v>1569</v>
       </c>
-      <c r="B791" s="1" t="s">
+    </row>
+    <row r="792" spans="1:2" hidden="1">
+      <c r="A792" s="1" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A792" s="1" t="s">
+      <c r="B792" s="1" t="s">
         <v>1571</v>
       </c>
-      <c r="B792" s="1" t="s">
+    </row>
+    <row r="793" spans="1:2" hidden="1">
+      <c r="A793" s="1" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A793" s="1" t="s">
+      <c r="B793" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="B793" s="1" t="s">
+    </row>
+    <row r="794" spans="1:2" hidden="1">
+      <c r="A794" s="1" t="s">
         <v>1574</v>
       </c>
-    </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A794" s="1" t="s">
+      <c r="B794" s="1" t="s">
         <v>1575</v>
       </c>
-      <c r="B794" s="1" t="s">
+    </row>
+    <row r="795" spans="1:2" hidden="1">
+      <c r="A795" s="1" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A795" s="1" t="s">
+      <c r="B795" s="1" t="s">
         <v>1577</v>
       </c>
-      <c r="B795" s="1" t="s">
+    </row>
+    <row r="796" spans="1:2" hidden="1">
+      <c r="A796" s="1" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A796" s="1" t="s">
+      <c r="B796" s="1" t="s">
         <v>1579</v>
       </c>
-      <c r="B796" s="1" t="s">
+    </row>
+    <row r="797" spans="1:2" hidden="1">
+      <c r="A797" s="1" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A797" s="1" t="s">
+      <c r="B797" s="1" t="s">
         <v>1581</v>
       </c>
-      <c r="B797" s="1" t="s">
+    </row>
+    <row r="798" spans="1:2" hidden="1">
+      <c r="A798" s="1" t="s">
         <v>1582</v>
       </c>
-    </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A798" s="1" t="s">
+      <c r="B798" s="1" t="s">
         <v>1583</v>
       </c>
-      <c r="B798" s="1" t="s">
+    </row>
+    <row r="799" spans="1:2" hidden="1">
+      <c r="A799" s="1" t="s">
         <v>1584</v>
       </c>
-    </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A799" s="1" t="s">
+      <c r="B799" s="1" t="s">
         <v>1585</v>
       </c>
-      <c r="B799" s="1" t="s">
+    </row>
+    <row r="800" spans="1:2" hidden="1">
+      <c r="A800" s="1" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A800" s="1" t="s">
+      <c r="B800" s="1" t="s">
         <v>1587</v>
       </c>
-      <c r="B800" s="1" t="s">
+    </row>
+    <row r="801" spans="1:2" hidden="1">
+      <c r="A801" s="1" t="s">
         <v>1588</v>
       </c>
-    </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A801" s="1" t="s">
+      <c r="B801" s="1" t="s">
         <v>1589</v>
       </c>
-      <c r="B801" s="1" t="s">
+    </row>
+    <row r="802" spans="1:2" hidden="1">
+      <c r="A802" s="1" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A802" s="1" t="s">
+      <c r="B802" s="1" t="s">
         <v>1591</v>
       </c>
-      <c r="B802" s="1" t="s">
+    </row>
+    <row r="803" spans="1:2" hidden="1">
+      <c r="A803" s="1" t="s">
         <v>1592</v>
       </c>
-    </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A803" s="1" t="s">
+      <c r="B803" s="1" t="s">
         <v>1593</v>
       </c>
-      <c r="B803" s="1" t="s">
+    </row>
+    <row r="804" spans="1:2" hidden="1">
+      <c r="A804" s="1" t="s">
         <v>1594</v>
       </c>
-    </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A804" s="1" t="s">
+      <c r="B804" s="1" t="s">
         <v>1595</v>
       </c>
-      <c r="B804" s="1" t="s">
+    </row>
+    <row r="805" spans="1:2" hidden="1">
+      <c r="A805" s="1" t="s">
         <v>1596</v>
       </c>
-    </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A805" s="1" t="s">
+      <c r="B805" s="1" t="s">
         <v>1597</v>
       </c>
-      <c r="B805" s="1" t="s">
+    </row>
+    <row r="806" spans="1:2" hidden="1">
+      <c r="A806" s="1" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A806" s="1" t="s">
+      <c r="B806" s="1" t="s">
         <v>1599</v>
       </c>
-      <c r="B806" s="1" t="s">
+    </row>
+    <row r="807" spans="1:2" hidden="1">
+      <c r="A807" s="1" t="s">
         <v>1600</v>
       </c>
-    </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A807" s="1" t="s">
+      <c r="B807" s="1" t="s">
         <v>1601</v>
       </c>
-      <c r="B807" s="1" t="s">
+    </row>
+    <row r="808" spans="1:2" hidden="1">
+      <c r="A808" s="1" t="s">
         <v>1602</v>
       </c>
-    </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A808" s="1" t="s">
+      <c r="B808" s="1" t="s">
         <v>1603</v>
       </c>
-      <c r="B808" s="1" t="s">
+    </row>
+    <row r="809" spans="1:2" hidden="1">
+      <c r="A809" s="1" t="s">
         <v>1604</v>
       </c>
-    </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A809" s="1" t="s">
+      <c r="B809" s="1" t="s">
         <v>1605</v>
       </c>
-      <c r="B809" s="1" t="s">
+    </row>
+    <row r="810" spans="1:2" hidden="1">
+      <c r="A810" s="1" t="s">
         <v>1606</v>
       </c>
-    </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A810" s="1" t="s">
+      <c r="B810" s="1" t="s">
         <v>1607</v>
       </c>
-      <c r="B810" s="1" t="s">
+    </row>
+    <row r="811" spans="1:2" hidden="1">
+      <c r="A811" s="1" t="s">
         <v>1608</v>
       </c>
-    </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A811" s="1" t="s">
+      <c r="B811" s="1" t="s">
         <v>1609</v>
       </c>
-      <c r="B811" s="1" t="s">
+    </row>
+    <row r="812" spans="1:2" hidden="1">
+      <c r="A812" s="1" t="s">
         <v>1610</v>
       </c>
-    </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A812" s="1" t="s">
+      <c r="B812" s="1" t="s">
         <v>1611</v>
       </c>
-      <c r="B812" s="1" t="s">
+    </row>
+    <row r="813" spans="1:2" hidden="1">
+      <c r="A813" s="1" t="s">
         <v>1612</v>
       </c>
-    </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A813" s="1" t="s">
+      <c r="B813" s="1" t="s">
         <v>1613</v>
-      </c>
-      <c r="B813" s="1" t="s">
-        <v>1614</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -11824,7 +11830,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
